--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4265E5-83BD-8740-AABF-4E167C0742A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B06A5D9-129B-454D-8896-2794F66DD2F2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID participant</t>
   </si>
@@ -70,10 +60,16 @@
     <t>Missing</t>
   </si>
   <si>
-    <t>all</t>
+    <t>no data available</t>
   </si>
   <si>
-    <t>Keine 15 Min. vor Erhebung</t>
+    <t xml:space="preserve">no steps </t>
+  </si>
+  <si>
+    <t>no steps</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
   </si>
 </sst>
 </file>
@@ -100,18 +96,68 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -120,16 +166,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -292,7 +347,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
@@ -328,15 +383,87 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,7 +485,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -492,7 +619,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -559,7 +686,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -626,7 +753,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -693,7 +820,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -760,7 +887,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -827,7 +954,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -894,7 +1021,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -961,7 +1088,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1028,7 +1155,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1095,7 +1222,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1162,7 +1289,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1229,7 +1356,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1296,7 +1423,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1363,7 +1490,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1430,7 +1557,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1497,7 +1624,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1564,7 +1691,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1631,7 +1758,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1698,7 +1825,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1765,14 +1892,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1832,14 +1959,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1899,14 +2026,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1966,14 +2093,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2033,14 +2160,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2100,14 +2227,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2167,14 +2294,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2234,14 +2361,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2301,14 +2428,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2368,14 +2495,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2435,14 +2562,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2502,14 +2629,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2569,14 +2696,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2636,14 +2763,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2703,15 +2830,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2770,15 +2897,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2837,15 +2964,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2904,15 +3031,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>31</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2971,15 +3098,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>32</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,15 +3165,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>33</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3105,15 +3232,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3172,15 +3299,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3239,15 +3366,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>36</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3306,15 +3433,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>37</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3373,15 +3500,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>38</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3440,15 +3567,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3507,15 +3634,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3574,15 +3701,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3641,15 +3768,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3708,15 +3835,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3767,6 +3894,1192 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>4157</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>4156</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E4BA96-874A-4EA6-BD46-E4EF5229E9F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B924131-C440-4F14-B962-E3DD4B619BC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8C4722-0BC6-4BDF-8A16-A822A2E6489D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70242BD-E5DE-4A18-8169-9DE8C510B69F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4070,1736 +5383,2119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="6"/>
+    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="10">
         <v>824</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>867</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <v>43</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="13">
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="7">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="F3" s="10">
         <v>128</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>152</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>24</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="13">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13">
         <v>44405</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>83</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>134</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <v>51</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="13">
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>201</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>1025</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>1138</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <v>113</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="13">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>105</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <v>86</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>192</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <v>106</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="13">
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>106</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>63</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>199</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="10">
         <v>136</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="13">
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="10">
         <v>157</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="10">
         <v>528</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="10">
         <v>371</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="13">
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="10">
         <v>62</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="10">
         <v>260</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="10">
         <v>198</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="13">
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>107</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="10">
         <v>112</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="10">
         <v>232</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="10">
         <v>120</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="13">
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>108</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
         <v>63</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="10">
         <v>88</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="10">
         <v>25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="13">
         <v>44482</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>109</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="7">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
         <v>202</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="10">
         <v>318</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="10">
         <f>G13-F13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="13">
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>110</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <v>59</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="10">
         <v>108</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="10">
         <v>49</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="13">
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>204</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F15" s="10">
+        <v>114</v>
+      </c>
+      <c r="G15" s="10">
+        <v>225</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SUM(G15-F15)</f>
         <v>111</v>
       </c>
-      <c r="B15" s="2">
+      <c r="I15" s="13">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>111</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="7">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="7">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E16" s="7">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="F16" s="10">
         <v>170</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="10">
         <v>259</v>
       </c>
-      <c r="H15" s="6">
-        <f>SUM(G15-F15)</f>
+      <c r="H16" s="10">
+        <f>SUM(G16-F16)</f>
         <v>89</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="13">
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>112</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B17" s="7">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C17" s="9">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="7">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="10">
         <v>225</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="10">
         <v>351</v>
       </c>
-      <c r="H16" s="6">
-        <f>SUM(G16-F16)</f>
+      <c r="H17" s="10">
+        <f>SUM(G17-F17)</f>
         <v>126</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="13">
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>205</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="7">
         <v>0.4152777777777778</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="9">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="10">
         <v>160</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="10">
         <v>189</v>
       </c>
-      <c r="H17" s="6">
-        <f>SUM(G17-F17)</f>
+      <c r="H18" s="10">
+        <f>SUM(G18-F18)</f>
         <v>29</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="13">
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>206</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.42291666666666666</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C19" s="7">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="7">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.49861111111111112</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E19" s="7">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="F19" s="10">
         <v>233</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="10">
         <v>318</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H19" s="10">
         <v>85</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="13">
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>113</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="7">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="7">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="10">
         <v>138</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="10">
         <v>491</v>
       </c>
-      <c r="H19" s="6">
-        <f>G19-F19</f>
+      <c r="H20" s="10">
+        <f>G20-F20</f>
         <v>353</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="13">
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>207</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B21" s="7">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="C21" s="7">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="7">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="10">
         <v>276</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="10">
         <v>585</v>
       </c>
-      <c r="H20" s="6">
-        <f>G20-F20</f>
+      <c r="H21" s="10">
+        <f>G21-F21</f>
         <v>309</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="13">
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>114</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="7">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="7">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="7">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="7">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="10">
         <v>107</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="10">
         <v>179</v>
       </c>
-      <c r="H21" s="6">
-        <f>G21-F21</f>
+      <c r="H22" s="10">
+        <f>G22-F22</f>
         <v>72</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="13">
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>115</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.38680555555555557</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" s="7">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C23" s="7">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="7">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.47430555555555554</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E23" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F23" s="10">
         <v>187</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="10">
         <v>754</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" ref="H22:H41" si="0">G22-F22</f>
+      <c r="H23" s="10">
+        <f t="shared" ref="H23:H54" si="0">G23-F23</f>
         <v>567</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="13">
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>116</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="7">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="7">
         <v>0.5625</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="7">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="10">
         <v>170</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="10">
         <v>630</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="13">
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>117</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="7">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="7">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="7">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="7">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="10">
         <v>38</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="10">
         <v>38</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="13">
         <v>44592</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>118</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="7">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="7">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="7">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="10">
         <v>42</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="10">
         <v>438</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="13">
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>119</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="7">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C27" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" s="7">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="10">
         <v>225</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="10">
         <v>322</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="13">
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>120</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="7">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="7">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="10">
         <v>95</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="10">
         <v>188</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="13">
         <v>44620</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>121</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="7">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="7">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="7">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="7">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="10">
         <v>143</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="10">
         <v>234</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="13">
         <v>44622</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>208</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="7">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="7">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="7">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="7">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="10">
         <v>38</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="10">
         <v>126</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="13">
         <v>44659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>209</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="7">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C30" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.52847222222222223</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="C31" s="7">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="F31" s="10">
         <v>155</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="10">
         <v>176</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="13">
         <v>44664</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>122</v>
       </c>
-      <c r="B31" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B32" s="7">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="C32" s="7">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="7">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="7">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="10">
         <v>122</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="10">
         <v>328</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="13">
         <v>44670</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>210</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1333</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1419</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I33" s="13">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>211</v>
       </c>
-      <c r="B32" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B34" s="7">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C34" s="7">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E34" s="7">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F34" s="10">
         <v>414</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G34" s="10">
         <v>433</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H34" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I34" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>212</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="7">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C35" s="7">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D35" s="7">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="7">
         <v>0.75</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="10">
         <v>589</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G35" s="10">
         <v>633</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I35" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>213</v>
       </c>
-      <c r="B34" s="2">
-        <v>0.53402777777777777</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B36" s="7">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C36" s="7">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D36" s="7">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E36" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F36" s="10">
         <v>133</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G36" s="10">
         <v>317</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H36" s="10">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I36" s="13">
         <v>44700</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>123</v>
       </c>
-      <c r="B35" s="2">
-        <v>0.58819444444444446</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B37" s="7">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C37" s="7">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="7">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E37" s="7">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="F37" s="10">
         <v>1155</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G37" s="10">
         <v>1309</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H37" s="10">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I37" s="13">
         <v>44701</v>
       </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>214</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B38" s="7">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C38" s="7">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="7">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E38" s="7">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="F38" s="10">
         <v>686</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G38" s="10">
         <v>883</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H38" s="10">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I38" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>215</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B39" s="7">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C39" s="7">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E39" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F39" s="10">
         <v>1526</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G39" s="10">
         <v>1648</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H39" s="10">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I39" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>124</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B40" s="7">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="7">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="7">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E40" s="7">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F40" s="10">
         <v>25</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G40" s="10">
         <v>45</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H40" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I40" s="13">
         <v>44715</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>216</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="F41" s="10">
+        <v>120</v>
+      </c>
+      <c r="G41" s="10">
+        <v>176</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I41" s="13">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>125</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B42" s="7">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C42" s="7">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D42" s="7">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E42" s="7">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F42" s="10">
         <v>75</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G42" s="10">
         <v>199</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H42" s="10">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I42" s="13">
         <v>44720</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>217</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="F43" s="10">
+        <v>410</v>
+      </c>
+      <c r="G43" s="10">
+        <v>449</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="13">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>218</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B44" s="7">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C44" s="7">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D44" s="7">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E44" s="7">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F44" s="10">
         <v>62</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G44" s="10">
         <v>149</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H44" s="10">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I44" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>219</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B45" s="7">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C45" s="7">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D45" s="7">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E45" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F45" s="10">
         <v>442</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G45" s="10">
         <v>631</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H45" s="10">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I45" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>126</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.56319444444444444</v>
+      </c>
+      <c r="F46" s="10">
+        <v>129</v>
+      </c>
+      <c r="G46" s="10">
+        <v>394</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="I46" s="13">
+        <v>44749</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>127</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="F47" s="10">
+        <v>283</v>
+      </c>
+      <c r="G47" s="10">
+        <v>404</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="I47" s="13">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>128</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="C48" s="9">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F48" s="10">
+        <v>23</v>
+      </c>
+      <c r="G48" s="10">
+        <v>101</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I48" s="13">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>129</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0.65625</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F49" s="10">
+        <v>155</v>
+      </c>
+      <c r="G49" s="10">
+        <v>251</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I49" s="13">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>130</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C50" s="9">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="F50" s="10">
+        <v>34</v>
+      </c>
+      <c r="G50" s="10">
+        <v>175</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="I50" s="13">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>131</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="F51" s="10">
+        <v>119</v>
+      </c>
+      <c r="G51" s="10">
+        <v>295</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="I51" s="13">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>132</v>
+      </c>
+      <c r="B52" s="9">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F52" s="10">
+        <v>67</v>
+      </c>
+      <c r="G52" s="10">
+        <v>88</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I52" s="13">
+        <v>44818</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>133</v>
+      </c>
+      <c r="B53" s="9">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="F53" s="10">
+        <v>162</v>
+      </c>
+      <c r="G53" s="10">
+        <v>266</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I53" s="13">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>134</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="C54" s="9">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="F54" s="10">
+        <v>43</v>
+      </c>
+      <c r="G54" s="10">
+        <v>157</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="I54" s="13">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>220</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="13">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>221</v>
+      </c>
+      <c r="B56" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="13">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5816,7 +7512,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5860,7 +7556,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5882,7 +7578,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5904,7 +7600,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5926,7 +7622,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5948,7 +7644,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5970,7 +7666,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5992,7 +7688,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6014,7 +7710,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6036,7 +7732,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6058,7 +7754,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6080,7 +7776,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6102,7 +7798,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6124,7 +7820,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6146,7 +7842,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6168,7 +7864,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6190,7 +7886,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6212,7 +7908,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6234,7 +7930,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6256,7 +7952,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6278,14 +7974,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6300,14 +7996,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6322,14 +8018,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6344,14 +8040,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6366,14 +8062,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6388,14 +8084,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6410,14 +8106,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6432,14 +8128,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6454,14 +8150,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>22</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6476,14 +8172,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>23</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6498,14 +8194,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>24</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6520,14 +8216,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>25</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6542,14 +8238,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6564,14 +8260,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -6586,15 +8282,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>28</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6608,15 +8304,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>29</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6630,15 +8326,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>30</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6652,15 +8348,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>31</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6674,15 +8370,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>32</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6696,15 +8392,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>33</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6718,15 +8414,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>34</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6740,15 +8436,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>35</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>35</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6762,15 +8458,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>36</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6784,15 +8480,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>37</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>37</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6806,15 +8502,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>38</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>38</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6828,15 +8524,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>39</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6850,15 +8546,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>40</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6872,15 +8568,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>41</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>45</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6894,15 +8590,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>42</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6916,15 +8612,411 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId55" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId56" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId57" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>50</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId58" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>51</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId59" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>52</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId60" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId61" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId62" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId63" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId64" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId65" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId66" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId67" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId68" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId69" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>53</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId70" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId71" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>54</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId72" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5B06A5D9-129B-454D-8896-2794F66DD2F2}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{551DF526-2E11-418F-8EB2-CABADEAD884F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID participant</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>11:20:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>13:19:00</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -181,7 +187,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -459,7 +464,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,6 +472,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2435,8 +2452,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>193702</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2837,8 +2854,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2904,8 +2921,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2971,8 +2988,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,8 +3055,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3105,8 +3122,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3172,8 +3189,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3239,8 +3256,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3306,8 +3323,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3373,8 +3390,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3440,8 +3457,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3507,8 +3524,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3574,8 +3591,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3641,8 +3658,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3708,8 +3725,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3775,8 +3792,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3842,8 +3859,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3909,8 +3926,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3976,8 +3993,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4043,8 +4060,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4110,8 +4127,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4177,8 +4194,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>4157</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4244,8 +4261,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>4156</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>193040</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4837,14 +4854,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -4853,7 +4875,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E4BA96-874A-4EA6-BD46-E4EF5229E9F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4893,20 +4915,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -4915,7 +4942,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B924131-C440-4F14-B962-E3DD4B619BC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4955,20 +4982,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -4977,7 +5009,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8C4722-0BC6-4BDF-8A16-A822A2E6489D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5017,6 +5049,135 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>2540</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1218648" cy="201322"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305F1EB0-C714-459D-BF42-2F08C0B33671}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -5030,16 +5191,78 @@
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:ext cx="1218648" cy="201322"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1096"/>
+                  <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70242BD-E5DE-4A18-8169-9DE8C510B69F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F85B42-79B4-40FF-8223-644DB516662A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1218648" cy="201323"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5951B7F-79A7-4BB1-B554-317342342886}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5385,9 +5608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6078,7 +6301,7 @@
         <v>754</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" ref="H23:H54" si="0">G23-F23</f>
+        <f t="shared" ref="H23:H57" si="0">G23-F23</f>
         <v>567</v>
       </c>
       <c r="I23" s="13">
@@ -7008,7 +7231,7 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="E54" s="9">
-        <v>0.72986111111111107</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="F54" s="10">
         <v>43</v>
@@ -7034,13 +7257,22 @@
       <c r="C55" s="9">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
+      <c r="D55" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="F55" s="10">
+        <v>388</v>
+      </c>
+      <c r="G55" s="10">
+        <v>485</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
       <c r="I55" s="13">
         <v>44833</v>
       </c>
@@ -7052,20 +7284,58 @@
       <c r="B56" s="9">
         <v>0.47916666666666669</v>
       </c>
+      <c r="C56" s="9">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="E56" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="F56" s="10">
+        <v>637</v>
+      </c>
+      <c r="G56" s="10">
+        <v>778</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
       <c r="I56" s="13">
         <v>44833</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="A57" s="6">
+        <v>135</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="F57" s="10">
+        <v>203</v>
+      </c>
+      <c r="G57" s="10">
+        <v>310</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="I57" s="13">
+        <v>44848</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F58" s="10"/>
@@ -9023,6 +9293,72 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId73" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId74" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId75" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="14_{97507877-EA25-40E1-B809-FCC1AA98D13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{551DF526-2E11-418F-8EB2-CABADEAD884F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C62CE99-A74D-4A57-8AD6-41D0682BB3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID participant</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>13:19:00</t>
+  </si>
+  <si>
+    <t>16:26:00</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,52 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2452,8 +2499,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>193702</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2854,8 +2901,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2921,8 +2968,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2988,8 +3035,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3055,8 +3102,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3122,8 +3169,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3189,8 +3236,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3256,8 +3303,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3323,8 +3370,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3390,8 +3437,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3457,8 +3504,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3524,8 +3571,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3591,8 +3638,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3658,8 +3705,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3725,8 +3772,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3792,8 +3839,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3859,8 +3906,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3926,8 +3973,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3993,8 +4040,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4060,8 +4107,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4127,8 +4174,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4194,8 +4241,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4261,8 +4308,8 @@
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>193040</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4865,7 +4912,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4932,7 +4979,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4999,7 +5046,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5066,7 +5113,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5122,14 +5169,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1218648" cy="201322"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -5138,7 +5190,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305F1EB0-C714-459D-BF42-2F08C0B33671}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5178,20 +5230,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1218648" cy="201322"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -5200,7 +5257,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F85B42-79B4-40FF-8223-644DB516662A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5240,6 +5297,135 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267047B9-9B31-4DC2-ADD6-2152D1E16F19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -5250,19 +5436,577 @@
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>56</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1218648" cy="201323"/>
+        <xdr:ext cx="1221890" cy="197224"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1099"/>
+                  <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5951B7F-79A7-4BB1-B554-317342342886}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B197BC5D-CCE4-46DE-B41E-6923A4908B55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827B1EDE-D49B-439A-B346-773C86EB9CCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97914DF1-84AA-416F-B8EC-C2CF2DC346F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A5FBE4-57DD-45BA-98D3-9F5EB918EC90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75752A32-E4FD-4E6C-ABB3-E942397B3647}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF391A33-37F4-434A-94FE-4AC67AF21172}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B2B300-B375-41F7-A48D-62D45289B2EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA98E17-DDA9-4F9C-B546-F00D2C7B8B77}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11C8FDB-A6F7-405C-9C52-FF3110D84F84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1221890" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19851A9-FB9D-4DC3-9B46-985B5F422502}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5609,8 +6353,8 @@
   <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6301,7 +7045,7 @@
         <v>754</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" ref="H23:H57" si="0">G23-F23</f>
+        <f t="shared" ref="H23:H62" si="0">G23-F23</f>
         <v>567</v>
       </c>
       <c r="I23" s="13">
@@ -7338,29 +8082,145 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="A58" s="6">
+        <v>136</v>
+      </c>
+      <c r="B58" s="9">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="F58" s="10">
+        <v>163</v>
+      </c>
+      <c r="G58" s="10">
+        <v>384</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="I58" s="13">
+        <v>44854</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="A59" s="6">
+        <v>222</v>
+      </c>
+      <c r="B59" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="F59" s="10">
+        <v>265</v>
+      </c>
+      <c r="G59" s="10">
+        <v>532</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="I59" s="13">
+        <v>44855</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="A60" s="6">
+        <v>223</v>
+      </c>
+      <c r="B60" s="9">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="F60" s="10">
+        <v>51</v>
+      </c>
+      <c r="G60" s="10">
+        <v>113</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I60" s="13">
+        <v>44858</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="A61" s="6">
+        <v>137</v>
+      </c>
+      <c r="B61" s="9">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0.68784722222222217</v>
+      </c>
+      <c r="F61" s="10">
+        <v>70</v>
+      </c>
+      <c r="G61" s="10">
+        <v>113</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="I61" s="13">
+        <v>44860</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="A62" s="6">
+        <v>224</v>
+      </c>
+      <c r="B62" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F62" s="10">
+        <v>109</v>
+      </c>
+      <c r="G62" s="10">
+        <v>261</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="I62" s="13">
+        <v>44861</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F63" s="10"/>
@@ -9359,6 +10219,248 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId76" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>56</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId77" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId78" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>57</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId79" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId80" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId81" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>58</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId82" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId83" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>59</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId84" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId85" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>60</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId86" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/02_paper/02_study/02_fitbit paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C62CE99-A74D-4A57-8AD6-41D0682BB3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8354E-A20B-054B-992D-C283EF56812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="-780" yWindow="-20300" windowWidth="25380" windowHeight="16120" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ID participant</t>
   </si>
@@ -68,26 +79,13 @@
   <si>
     <t>no steps</t>
   </si>
-  <si>
-    <t>11:20:00</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>13:19:00</t>
-  </si>
-  <si>
-    <t>16:26:00</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -183,14 +181,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -549,7 +545,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -683,7 +679,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -750,7 +746,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -817,7 +813,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -884,7 +880,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -951,7 +947,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1018,7 +1014,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1085,7 +1081,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1152,7 +1148,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1219,7 +1215,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1286,7 +1282,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1353,7 +1349,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1420,7 +1416,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1487,7 +1483,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1554,7 +1550,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1621,7 +1617,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1688,7 +1684,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1755,7 +1751,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1822,7 +1818,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1889,7 +1885,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1956,7 +1952,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2023,7 +2019,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2090,7 +2086,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2157,7 +2153,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2224,7 +2220,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2291,7 +2287,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2358,7 +2354,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2425,7 +2421,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2492,7 +2488,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2559,7 +2555,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2626,7 +2622,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2693,7 +2689,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2760,7 +2756,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2827,7 +2823,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2894,15 +2890,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2961,15 +2957,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3028,15 +3024,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3095,15 +3091,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3162,15 +3158,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3229,15 +3225,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3296,15 +3292,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3363,15 +3359,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3430,15 +3426,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3497,15 +3493,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3564,15 +3560,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3631,15 +3627,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3698,15 +3694,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3765,15 +3761,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3832,15 +3828,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3899,15 +3895,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3966,15 +3962,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4033,15 +4029,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4100,15 +4096,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4167,15 +4163,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4234,15 +4230,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4301,15 +4297,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4368,7 +4364,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4435,7 +4431,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4502,7 +4498,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4569,7 +4565,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4636,7 +4632,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4703,7 +4699,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4770,7 +4766,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4837,7 +4833,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4904,7 +4900,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4912,7 +4908,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4971,7 +4967,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4979,7 +4975,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5038,7 +5034,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5046,7 +5042,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5105,7 +5101,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5113,7 +5109,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5172,7 +5168,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5239,7 +5235,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5306,7 +5302,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5370,14 +5366,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -5386,7 +5387,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267047B9-9B31-4DC2-ADD6-2152D1E16F19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5426,20 +5427,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -5448,7 +5454,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B197BC5D-CCE4-46DE-B41E-6923A4908B55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5488,20 +5494,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -5510,7 +5521,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827B1EDE-D49B-439A-B346-773C86EB9CCF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5550,20 +5561,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -5572,7 +5588,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97914DF1-84AA-416F-B8EC-C2CF2DC346F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5612,20 +5628,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -5634,7 +5655,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A5FBE4-57DD-45BA-98D3-9F5EB918EC90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5674,20 +5695,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -5696,7 +5722,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75752A32-E4FD-4E6C-ABB3-E942397B3647}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5736,20 +5762,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -5758,7 +5789,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF391A33-37F4-434A-94FE-4AC67AF21172}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5798,20 +5829,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
@@ -5820,7 +5856,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B2B300-B375-41F7-A48D-62D45289B2EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5860,20 +5896,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
@@ -5882,7 +5923,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA98E17-DDA9-4F9C-B546-F00D2C7B8B77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5922,20 +5963,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -5944,7 +5990,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11C8FDB-A6F7-405C-9C52-FF3110D84F84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5984,20 +6030,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
@@ -6006,7 +6057,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19851A9-FB9D-4DC3-9B46-985B5F422502}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6046,7 +6097,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6353,26 +6404,26 @@
   <dimension ref="A1:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="6"/>
-    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" style="3"/>
+    <col min="6" max="6" width="20.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="6"/>
+    <col min="10" max="10" width="16.1640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6391,7 +6442,7 @@
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -6407,477 +6458,477 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>0.65069444444444446</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <v>824</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>867</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>43</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="8">
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>102</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>0.66736111111111107</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>0.75138888888888899</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>128</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>152</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>24</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="8">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>103</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
         <v>44405</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>0.58402777777777781</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>0.60625000000000007</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>83</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>134</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>51</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="8">
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>201</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>0.50902777777777775</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>0.52708333333333335</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>1025</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>1138</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>113</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="8">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>105</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>86</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>192</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>106</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="8">
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>106</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>63</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>199</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>136</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="8">
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>0.67152777777777783</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>0.70347222222222217</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>157</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>528</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="8">
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>0.63472222222222219</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>0.65486111111111112</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>62</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>260</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>198</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="8">
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>107</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>0.46249999999999997</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>112</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>232</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>120</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="8">
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>108</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>0.4680555555555555</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>0.4770833333333333</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>63</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>88</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="8">
         <v>44482</v>
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>109</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>0.64722222222222225</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="9">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>202</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>318</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <f>G13-F13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="8">
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>110</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>0.55277777777777781</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>0.58263888888888882</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>59</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>108</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>49</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="8">
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>204</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>0.46875</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>0.48055555555555557</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>114</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="7">
         <v>225</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <f>SUM(G15-F15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="8">
         <v>44512</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>111</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>0.6645833333333333</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>0.70694444444444438</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>170</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>259</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <f>SUM(G16-F16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="8">
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>112</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>0.42083333333333334</v>
       </c>
       <c r="C17" s="9">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>225</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>351</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <f>SUM(G17-F17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="8">
         <v>44547</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>205</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>0.4152777777777778</v>
       </c>
       <c r="C18" s="9">
@@ -6886,903 +6937,903 @@
       <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>160</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>189</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <f>SUM(G18-F18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="8">
         <v>44526</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>206</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
         <v>0.49513888888888885</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>233</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <v>318</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>85</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="8">
         <v>44568</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>113</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>0.55486111111111114</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>0.56805555555555554</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>138</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <v>491</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <f>G20-F20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="8">
         <v>44571</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>207</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>0.42986111111111108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>0.44375000000000003</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>276</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="7">
         <v>585</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <f>G21-F21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="8">
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>114</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>0.6430555555555556</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>0.66180555555555554</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>0.6743055555555556</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="9">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>107</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="7">
         <v>179</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <f>G22-F22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="8">
         <v>44572</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>115</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>0.38750000000000001</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>0.4152777777777778</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="9">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>187</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="7">
         <v>754</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="7">
         <f t="shared" ref="H23:H62" si="0">G23-F23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="8">
         <v>44580</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>116</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>0.57708333333333328</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>170</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="7">
         <v>630</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="8">
         <v>44585</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>117</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>0.55277777777777781</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>0.56736111111111109</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="9">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <v>38</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="7">
         <v>38</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="8">
         <v>44592</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>118</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>0.4777777777777778</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>0.49236111111111108</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="9">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="7">
         <v>42</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="7">
         <v>438</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="8">
         <v>44606</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>119</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>0.45277777777777778</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>0.46875</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="7">
         <v>225</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="7">
         <v>322</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="8">
         <v>44608</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>120</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>0.60555555555555551</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="7">
         <v>95</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="7">
         <v>188</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="8">
         <v>44620</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>121</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>0.42083333333333334</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>0.43472222222222223</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="9">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="7">
         <v>143</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="7">
         <v>234</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="8">
         <v>44622</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>208</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>0.46319444444444446</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>0.47847222222222219</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="7">
         <v>38</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="7">
         <v>126</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="8">
         <v>44659</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>209</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>0.4597222222222222</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>0.4777777777777778</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9">
         <v>0.52708333333333335</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="7">
         <v>155</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="7">
         <v>176</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="8">
         <v>44664</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>122</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>0.62430555555555556</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="7">
         <v>122</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="7">
         <v>328</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="7">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="8">
         <v>44670</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>210</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>0.63680555555555551</v>
       </c>
       <c r="C33" s="9">
         <v>0.67083333333333339</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>0.68472222222222223</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="9">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="7">
         <v>1333</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="7">
         <v>1419</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="7">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="8">
         <v>44677</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>211</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>0.58124999999999993</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>0.59583333333333333</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>0.60972222222222217</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9">
         <v>0.6694444444444444</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="7">
         <v>414</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="7">
         <v>433</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="8">
         <v>44686</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>212</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>0.6743055555555556</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="9">
         <v>0.75</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="7">
         <v>589</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="7">
         <v>633</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="8">
         <v>44686</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>213</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="7">
         <v>133</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="7">
         <v>317</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="7">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="8">
         <v>44700</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>123</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>0.58750000000000002</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>0.59652777777777777</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="7">
         <v>1155</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="7">
         <v>1309</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="7">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="8">
         <v>44701</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>214</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>0.50624999999999998</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="9">
         <v>0.52361111111111114</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9">
         <v>0.5854166666666667</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="7">
         <v>686</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="7">
         <v>883</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="7">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="8">
         <v>44706</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>215</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>0.59791666666666665</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="9">
         <v>0.61805555555555558</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="9">
         <v>0.63194444444444442</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="9">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="7">
         <v>1526</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="7">
         <v>1648</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="7">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="8">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>124</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>0.54513888888888895</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="9">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="7">
         <v>25</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="7">
         <v>45</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="8">
         <v>44715</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>216</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>0.62708333333333333</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="9">
         <v>0.6381944444444444</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9">
         <v>0.64861111111111114</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="9">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="7">
         <v>120</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="7">
         <v>176</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="8">
         <v>44719</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>125</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>0.41388888888888892</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="9">
         <v>0.42777777777777781</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="9">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="7">
         <v>75</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="7">
         <v>199</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="7">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="8">
         <v>44720</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>217</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>0.47847222222222219</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="9">
         <v>0.48888888888888887</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9">
         <v>0.50208333333333333</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="9">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="7">
         <v>410</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="7">
         <v>449</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="8">
         <v>44725</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>218</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="9">
         <v>0.3444444444444445</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9">
         <v>0.35833333333333334</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="9">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="7">
         <v>62</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="7">
         <v>149</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="7">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="8">
         <v>44728</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>219</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>0.43124999999999997</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="9">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="9">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="7">
         <v>442</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="7">
         <v>631</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="7">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="8">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>126</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>0.5</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="7">
         <v>129</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="7">
         <v>394</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="7">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="8">
         <v>44749</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>127</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>0.4291666666666667</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="7">
         <v>283</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="7">
         <v>404</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="7">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="8">
         <v>44750</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>128</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>0.62777777777777777</v>
       </c>
       <c r="C48" s="9">
@@ -7794,21 +7845,21 @@
       <c r="E48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="7">
         <v>23</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="7">
         <v>101</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="8">
         <v>44768</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>129</v>
       </c>
@@ -7824,25 +7875,25 @@
       <c r="E49" s="9">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="7">
         <v>155</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="7">
         <v>251</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="7">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="8">
         <v>44777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>130</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>0.4548611111111111</v>
       </c>
       <c r="C50" s="9">
@@ -7854,21 +7905,21 @@
       <c r="E50" s="9">
         <v>0.5229166666666667</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="7">
         <v>34</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="7">
         <v>175</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="7">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="8">
         <v>44781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>131</v>
       </c>
@@ -7884,21 +7935,21 @@
       <c r="E51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="7">
         <v>119</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="7">
         <v>295</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="7">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="8">
         <v>44784</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>132</v>
       </c>
@@ -7914,24 +7965,24 @@
       <c r="E52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="7">
         <v>67</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="7">
         <v>88</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="8">
         <v>44818</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>133</v>
       </c>
@@ -7947,21 +7998,21 @@
       <c r="E53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="7">
         <v>162</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="7">
         <v>266</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="7">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="8">
         <v>44818</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>134</v>
       </c>
@@ -7977,21 +8028,21 @@
       <c r="E54" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="7">
         <v>43</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="7">
         <v>157</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="7">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="8">
         <v>44823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>220</v>
       </c>
@@ -8001,27 +8052,27 @@
       <c r="C55" s="9">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="10">
+      <c r="D55" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F55" s="7">
         <v>388</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="7">
         <v>485</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="8">
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>221</v>
       </c>
@@ -8037,29 +8088,29 @@
       <c r="E56" s="9">
         <v>0.53055555555555556</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="7">
         <v>637</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="7">
         <v>778</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="7">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="8">
         <v>44833</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>135</v>
       </c>
       <c r="B57" s="9">
         <v>0.53402777777777777</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>16</v>
+      <c r="C57" s="9">
+        <v>0.55486111111111114</v>
       </c>
       <c r="D57" s="9">
         <v>0.56874999999999998</v>
@@ -8067,29 +8118,29 @@
       <c r="E57" s="9">
         <v>0.61527777777777781</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="7">
         <v>203</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="7">
         <v>310</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="7">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="8">
         <v>44848</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>136</v>
       </c>
       <c r="B58" s="9">
         <v>0.67222222222222217</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>17</v>
+      <c r="C58" s="9">
+        <v>0.68472222222222223</v>
       </c>
       <c r="D58" s="9">
         <v>0.69861111111111107</v>
@@ -8097,21 +8148,21 @@
       <c r="E58" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="7">
         <v>163</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="7">
         <v>384</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="7">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="8">
         <v>44854</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>222</v>
       </c>
@@ -8127,21 +8178,21 @@
       <c r="E59" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="7">
         <v>265</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="7">
         <v>532</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="7">
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="8">
         <v>44855</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>223</v>
       </c>
@@ -8157,21 +8208,21 @@
       <c r="E60" s="9">
         <v>0.62916666666666665</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="7">
         <v>51</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="7">
         <v>113</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="8">
         <v>44858</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>137</v>
       </c>
@@ -8187,445 +8238,476 @@
       <c r="E61" s="9">
         <v>0.68784722222222217</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="7">
         <v>70</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="7">
         <v>113</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="8">
         <v>44860</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>224</v>
       </c>
       <c r="B62" s="9">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F62" s="10">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="7">
         <v>109</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="7">
         <v>261</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="7">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="8">
         <v>44861</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8642,7 +8724,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8686,7 +8768,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8708,7 +8790,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8730,7 +8812,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8752,7 +8834,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8774,7 +8856,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8796,7 +8878,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8818,7 +8900,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8840,7 +8922,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8862,7 +8944,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8884,7 +8966,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8906,7 +8988,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8928,7 +9010,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8950,7 +9032,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8972,7 +9054,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -8994,7 +9076,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9016,7 +9098,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9038,7 +9120,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9060,7 +9142,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9082,7 +9164,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9104,7 +9186,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9126,7 +9208,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9148,7 +9230,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9170,7 +9252,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9192,7 +9274,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9214,7 +9296,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9236,7 +9318,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9258,7 +9340,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9280,7 +9362,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9302,7 +9384,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9324,7 +9406,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9346,7 +9428,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9368,7 +9450,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9390,7 +9472,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9412,7 +9494,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9420,7 +9502,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9434,7 +9516,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9442,7 +9524,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9456,7 +9538,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9464,7 +9546,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9478,7 +9560,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9486,7 +9568,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9500,7 +9582,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9508,7 +9590,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9522,7 +9604,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9530,7 +9612,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9544,7 +9626,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9552,7 +9634,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9566,7 +9648,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9574,7 +9656,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9588,7 +9670,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9596,7 +9678,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9610,7 +9692,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9618,7 +9700,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9632,7 +9714,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9640,7 +9722,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9654,7 +9736,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9662,7 +9744,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9676,7 +9758,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9684,7 +9766,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9698,7 +9780,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9706,7 +9788,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9720,7 +9802,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9728,7 +9810,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9742,7 +9824,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9750,7 +9832,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9764,7 +9846,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9772,7 +9854,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9786,7 +9868,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9794,7 +9876,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9808,7 +9890,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9816,7 +9898,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9830,7 +9912,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9838,7 +9920,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9852,7 +9934,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9860,7 +9942,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9874,7 +9956,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9882,7 +9964,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9896,7 +9978,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9918,7 +10000,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9940,7 +10022,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9962,7 +10044,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -9984,7 +10066,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10006,7 +10088,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10028,7 +10110,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10050,7 +10132,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10072,7 +10154,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10080,7 +10162,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10094,7 +10176,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10102,7 +10184,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10116,7 +10198,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10124,7 +10206,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10138,7 +10220,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10146,7 +10228,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10160,7 +10242,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10182,7 +10264,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10204,7 +10286,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10226,7 +10308,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10234,7 +10316,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10248,7 +10330,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10270,7 +10352,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10278,7 +10360,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10292,7 +10374,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10314,7 +10396,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10336,7 +10418,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10344,7 +10426,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10358,7 +10440,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10380,7 +10462,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10388,7 +10470,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10402,7 +10484,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10424,7 +10506,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -10446,7 +10528,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/02_paper/02_study/02_fitbit paper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8354E-A20B-054B-992D-C283EF56812E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8167856-8D8C-4035-BB88-ABCD7EC317CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="-20300" windowWidth="25380" windowHeight="16120" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID participant</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>no steps</t>
+  </si>
+  <si>
+    <t>Mid Interview -5</t>
   </si>
 </sst>
 </file>
@@ -544,14 +547,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -611,13 +614,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -678,14 +681,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -745,14 +748,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -812,14 +815,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -879,14 +882,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -946,14 +949,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1013,14 +1016,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1080,14 +1083,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1147,14 +1150,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1214,14 +1217,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1281,14 +1284,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1348,14 +1351,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1415,14 +1418,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1482,14 +1485,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1549,14 +1552,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1616,14 +1619,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1683,14 +1686,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1750,14 +1753,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1817,14 +1820,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1884,14 +1887,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1951,14 +1954,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2018,14 +2021,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2085,14 +2088,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2152,14 +2155,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2219,14 +2222,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2286,14 +2289,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2353,14 +2356,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2420,14 +2423,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2487,14 +2490,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2554,14 +2557,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2621,14 +2624,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2688,14 +2691,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2755,14 +2758,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2822,14 +2825,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2889,16 +2892,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2956,16 +2959,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3023,16 +3026,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3090,16 +3093,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3157,16 +3160,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3224,16 +3227,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3291,16 +3294,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3358,16 +3361,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3425,16 +3428,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3492,16 +3495,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3559,16 +3562,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3626,16 +3629,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3693,16 +3696,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3760,16 +3763,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3827,16 +3830,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3894,16 +3897,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3961,16 +3964,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4028,16 +4031,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4095,16 +4098,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4162,16 +4165,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4229,16 +4232,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4296,16 +4299,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4363,14 +4366,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4430,14 +4433,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4497,14 +4500,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4564,14 +4567,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4631,14 +4634,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4698,14 +4701,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4765,14 +4768,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4832,14 +4835,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4899,16 +4902,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4966,16 +4969,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5033,16 +5036,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5100,16 +5103,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5167,14 +5170,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5234,14 +5237,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5301,14 +5304,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5368,16 +5371,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5435,14 +5438,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5502,16 +5505,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5569,14 +5572,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5636,14 +5639,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5703,16 +5706,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5770,14 +5773,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5837,16 +5840,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5904,14 +5907,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5971,14 +5974,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6038,14 +6041,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6401,29 +6404,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="6"/>
-    <col min="10" max="10" width="16.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="3"/>
+    <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="19.296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="6"/>
+    <col min="11" max="11" width="16.19921875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6437,28 +6440,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>101</v>
       </c>
@@ -6472,22 +6478,26 @@
         <v>0.6777777777777777</v>
       </c>
       <c r="E2" s="9">
+        <f t="shared" ref="E2:E38" si="0">(F2-D2)/2+D2-TIME(0,5,0)</f>
+        <v>0.69895833333333324</v>
+      </c>
+      <c r="F2" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>824</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>867</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>43</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>102</v>
       </c>
@@ -6501,22 +6511,26 @@
         <v>0.67986111111111114</v>
       </c>
       <c r="E3" s="9">
+        <f t="shared" si="0"/>
+        <v>0.71215277777777786</v>
+      </c>
+      <c r="F3" s="9">
         <v>0.75138888888888899</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>128</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>152</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>24</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>103</v>
       </c>
@@ -6530,19 +6544,23 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F4" s="9">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
         <v>44405</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>104</v>
       </c>
@@ -6556,22 +6574,26 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.64618055555555565</v>
+      </c>
+      <c r="F5" s="9">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>83</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>134</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>51</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>201</v>
       </c>
@@ -6585,22 +6607,26 @@
         <v>0.54027777777777775</v>
       </c>
       <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.57326388888888891</v>
+      </c>
+      <c r="F6" s="9">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>1025</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>1138</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>113</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>105</v>
       </c>
@@ -6614,22 +6640,26 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>86</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>192</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>106</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>106</v>
       </c>
@@ -6643,22 +6673,26 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48194444444444451</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>63</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>199</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>136</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -6672,22 +6706,26 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.74062499999999998</v>
+      </c>
+      <c r="F9" s="9">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>157</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>528</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <v>371</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -6701,22 +6739,26 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67465277777777777</v>
+      </c>
+      <c r="F10" s="9">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="7">
         <v>62</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>260</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <v>198</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>107</v>
       </c>
@@ -6730,22 +6772,26 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>112</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>232</v>
       </c>
-      <c r="H11" s="7">
+      <c r="I11" s="7">
         <v>120</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>108</v>
       </c>
@@ -6759,23 +6805,27 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5097222222222223</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>63</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>88</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>25</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>44482</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>109</v>
       </c>
@@ -6789,23 +6839,27 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6850694444444444</v>
+      </c>
+      <c r="F13" s="9">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="7">
         <v>202</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>318</v>
       </c>
-      <c r="H13" s="7">
-        <f>G13-F13</f>
+      <c r="I13" s="7">
+        <f>H13-G13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>110</v>
       </c>
@@ -6819,22 +6873,26 @@
         <v>0.58263888888888882</v>
       </c>
       <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="F14" s="9">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>59</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>108</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <v>49</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>204</v>
       </c>
@@ -6848,23 +6906,27 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F15" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>114</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>225</v>
       </c>
-      <c r="H15" s="7">
-        <f>SUM(G15-F15)</f>
+      <c r="I15" s="7">
+        <f>SUM(H15-G15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>44512</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111</v>
       </c>
@@ -6878,23 +6940,27 @@
         <v>0.6777777777777777</v>
       </c>
       <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.68888888888888877</v>
+      </c>
+      <c r="F16" s="9">
         <v>0.70694444444444438</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>170</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>259</v>
       </c>
-      <c r="H16" s="7">
-        <f>SUM(G16-F16)</f>
+      <c r="I16" s="7">
+        <f>SUM(H16-G16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>112</v>
       </c>
@@ -6908,23 +6974,27 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="F17" s="9">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>225</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>351</v>
       </c>
-      <c r="H17" s="7">
-        <f>SUM(G17-F17)</f>
+      <c r="I17" s="7">
+        <f>SUM(H17-G17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>44547</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>205</v>
       </c>
@@ -6938,23 +7008,27 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F18" s="9">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>160</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>189</v>
       </c>
-      <c r="H18" s="7">
-        <f>SUM(G18-F18)</f>
+      <c r="I18" s="7">
+        <f>SUM(H18-G18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>44526</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>206</v>
       </c>
@@ -6968,22 +7042,26 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46840277777777778</v>
+      </c>
+      <c r="F19" s="9">
         <v>0.49513888888888885</v>
       </c>
-      <c r="F19" s="7">
+      <c r="G19" s="7">
         <v>233</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>318</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <v>85</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>44568</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>113</v>
       </c>
@@ -6997,23 +7075,27 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58541666666666659</v>
+      </c>
+      <c r="F20" s="9">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="7">
+      <c r="G20" s="7">
         <v>138</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>491</v>
       </c>
-      <c r="H20" s="7">
-        <f>G20-F20</f>
+      <c r="I20" s="7">
+        <f>H20-G20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>44571</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>207</v>
       </c>
@@ -7027,23 +7109,27 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47534722222222225</v>
+      </c>
+      <c r="F21" s="9">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>276</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>585</v>
       </c>
-      <c r="H21" s="7">
-        <f>G21-F21</f>
+      <c r="I21" s="7">
+        <f>H21-G21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>114</v>
       </c>
@@ -7057,23 +7143,27 @@
         <v>0.6743055555555556</v>
       </c>
       <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.69652777777777786</v>
+      </c>
+      <c r="F22" s="9">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>107</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>179</v>
       </c>
-      <c r="H22" s="7">
-        <f>G22-F22</f>
+      <c r="I22" s="7">
+        <f>H22-G22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>44572</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>115</v>
       </c>
@@ -7087,23 +7177,27 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.44652777777777786</v>
+      </c>
+      <c r="F23" s="9">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>187</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>754</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" ref="H23:H62" si="0">G23-F23</f>
+      <c r="I23" s="7">
+        <f t="shared" ref="I23:I62" si="1">H23-G23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>44580</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>116</v>
       </c>
@@ -7117,23 +7211,27 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60104166666666659</v>
+      </c>
+      <c r="F24" s="9">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>170</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>630</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" si="0"/>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>44585</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>117</v>
       </c>
@@ -7147,26 +7245,30 @@
         <v>0.56736111111111109</v>
       </c>
       <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F25" s="9">
         <v>0.61458333333333337</v>
-      </c>
-      <c r="F25" s="7">
-        <v>38</v>
       </c>
       <c r="G25" s="7">
         <v>38</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <v>44592</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>118</v>
       </c>
@@ -7180,23 +7282,27 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="F26" s="9">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>42</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <v>438</v>
       </c>
-      <c r="H26" s="7">
-        <f t="shared" si="0"/>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>44606</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>119</v>
       </c>
@@ -7210,23 +7316,27 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="F27" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>225</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <v>322</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" si="0"/>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>44608</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>120</v>
       </c>
@@ -7240,23 +7350,27 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63993055555555556</v>
+      </c>
+      <c r="F28" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="7">
         <v>95</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="7">
         <v>188</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" si="0"/>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>44620</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>121</v>
       </c>
@@ -7270,23 +7384,27 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F29" s="9">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>143</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <v>234</v>
       </c>
-      <c r="H29" s="7">
-        <f t="shared" si="0"/>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>44622</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>208</v>
       </c>
@@ -7300,23 +7418,27 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F30" s="9">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>38</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>126</v>
       </c>
-      <c r="H30" s="7">
-        <f t="shared" si="0"/>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>44659</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>209</v>
       </c>
@@ -7330,23 +7452,27 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49895833333333339</v>
+      </c>
+      <c r="F31" s="9">
         <v>0.52708333333333335</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>155</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="7">
         <v>176</v>
       </c>
-      <c r="H31" s="7">
-        <f t="shared" si="0"/>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>44664</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>122</v>
       </c>
@@ -7360,23 +7486,27 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.67951388888888886</v>
+      </c>
+      <c r="F32" s="9">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="7">
         <v>122</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
         <v>328</v>
       </c>
-      <c r="H32" s="7">
-        <f t="shared" si="0"/>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>44670</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>210</v>
       </c>
@@ -7390,23 +7520,27 @@
         <v>0.68472222222222223</v>
       </c>
       <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.70659722222222221</v>
+      </c>
+      <c r="F33" s="9">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="7">
         <v>1333</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
         <v>1419</v>
       </c>
-      <c r="H33" s="7">
-        <f t="shared" si="0"/>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <v>44677</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>211</v>
       </c>
@@ -7420,23 +7554,27 @@
         <v>0.60972222222222217</v>
       </c>
       <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="F34" s="9">
         <v>0.6694444444444444</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>414</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>433</v>
       </c>
-      <c r="H34" s="7">
-        <f t="shared" si="0"/>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <v>44686</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>212</v>
       </c>
@@ -7450,23 +7588,27 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F35" s="9">
         <v>0.75</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>589</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>633</v>
       </c>
-      <c r="H35" s="7">
-        <f t="shared" si="0"/>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <v>44686</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>213</v>
       </c>
@@ -7480,23 +7622,27 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="F36" s="9">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>133</v>
       </c>
-      <c r="G36" s="7">
+      <c r="H36" s="7">
         <v>317</v>
       </c>
-      <c r="H36" s="7">
-        <f t="shared" si="0"/>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="I36" s="8">
+      <c r="J36" s="8">
         <v>44700</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>123</v>
       </c>
@@ -7510,23 +7656,27 @@
         <v>0.61041666666666672</v>
       </c>
       <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.62534722222222228</v>
+      </c>
+      <c r="F37" s="9">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="7">
         <v>1155</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H37" s="7">
         <v>1309</v>
       </c>
-      <c r="H37" s="7">
-        <f t="shared" si="0"/>
+      <c r="I37" s="7">
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>44701</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>214</v>
       </c>
@@ -7540,23 +7690,27 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F38" s="9">
         <v>0.5854166666666667</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="7">
         <v>686</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H38" s="7">
         <v>883</v>
       </c>
-      <c r="H38" s="7">
-        <f t="shared" si="0"/>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="I38" s="8">
+      <c r="J38" s="8">
         <v>44706</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>215</v>
       </c>
@@ -7570,23 +7724,27 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="E39" s="9">
+        <f>(F39-D39)/2+D39-TIME(0,5,0)</f>
+        <v>0.65104166666666663</v>
+      </c>
+      <c r="F39" s="9">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>1526</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>1648</v>
       </c>
-      <c r="H39" s="7">
-        <f t="shared" si="0"/>
+      <c r="I39" s="7">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="I39" s="8">
+      <c r="J39" s="8">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>124</v>
       </c>
@@ -7600,23 +7758,27 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E40" s="9">
+        <f t="shared" ref="E40:E61" si="2">(F40-D40)/2+D40-TIME(0,5,0)</f>
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="F40" s="9">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>25</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>45</v>
       </c>
-      <c r="H40" s="7">
-        <f t="shared" si="0"/>
+      <c r="I40" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I40" s="8">
+      <c r="J40" s="8">
         <v>44715</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>216</v>
       </c>
@@ -7630,23 +7792,27 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="E41" s="9">
+        <f t="shared" si="2"/>
+        <v>0.67187500000000011</v>
+      </c>
+      <c r="F41" s="9">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="7">
+      <c r="G41" s="7">
         <v>120</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H41" s="7">
         <v>176</v>
       </c>
-      <c r="H41" s="7">
-        <f t="shared" si="0"/>
+      <c r="I41" s="7">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="I41" s="8">
+      <c r="J41" s="8">
         <v>44719</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>125</v>
       </c>
@@ -7660,23 +7826,27 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="E42" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45868055555555554</v>
+      </c>
+      <c r="F42" s="9">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>75</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>199</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" si="0"/>
+      <c r="I42" s="7">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J42" s="8">
         <v>44720</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>217</v>
       </c>
@@ -7690,23 +7860,27 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="E43" s="9">
+        <f t="shared" si="2"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F43" s="9">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="7">
+      <c r="G43" s="7">
         <v>410</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>449</v>
       </c>
-      <c r="H43" s="7">
-        <f t="shared" si="0"/>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>44725</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>218</v>
       </c>
@@ -7720,23 +7894,27 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="E44" s="9">
+        <f t="shared" si="2"/>
+        <v>0.38020833333333337</v>
+      </c>
+      <c r="F44" s="9">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>62</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>149</v>
       </c>
-      <c r="H44" s="7">
-        <f t="shared" si="0"/>
+      <c r="I44" s="7">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="I44" s="8">
+      <c r="J44" s="8">
         <v>44728</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>219</v>
       </c>
@@ -7750,23 +7928,27 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="E45" s="9">
+        <f t="shared" si="2"/>
+        <v>0.45763888888888893</v>
+      </c>
+      <c r="F45" s="9">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="7">
+      <c r="G45" s="7">
         <v>442</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H45" s="7">
         <v>631</v>
       </c>
-      <c r="H45" s="7">
-        <f t="shared" si="0"/>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>126</v>
       </c>
@@ -7780,26 +7962,30 @@
         <v>0.52638888888888891</v>
       </c>
       <c r="E46" s="9">
+        <f t="shared" si="2"/>
+        <v>0.54131944444444446</v>
+      </c>
+      <c r="F46" s="9">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>129</v>
       </c>
-      <c r="G46" s="7">
+      <c r="H46" s="7">
         <v>394</v>
       </c>
-      <c r="H46" s="7">
-        <f t="shared" si="0"/>
+      <c r="I46" s="7">
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="I46" s="8">
+      <c r="J46" s="8">
         <v>44749</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>127</v>
       </c>
@@ -7813,23 +7999,27 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="E47" s="9">
+        <f t="shared" si="2"/>
+        <v>0.46909722222222222</v>
+      </c>
+      <c r="F47" s="9">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="7">
+      <c r="G47" s="7">
         <v>283</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>404</v>
       </c>
-      <c r="H47" s="7">
-        <f t="shared" si="0"/>
+      <c r="I47" s="7">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="I47" s="8">
+      <c r="J47" s="8">
         <v>44750</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>128</v>
       </c>
@@ -7843,23 +8033,27 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="E48" s="9">
+        <f t="shared" si="2"/>
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="7">
+      <c r="G48" s="7">
         <v>23</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>101</v>
       </c>
-      <c r="H48" s="7">
-        <f t="shared" si="0"/>
+      <c r="I48" s="7">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>44768</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>129</v>
       </c>
@@ -7873,23 +8067,27 @@
         <v>0.6875</v>
       </c>
       <c r="E49" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="F49" s="9">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F49" s="7">
+      <c r="G49" s="7">
         <v>155</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H49" s="7">
         <v>251</v>
       </c>
-      <c r="H49" s="7">
-        <f t="shared" si="0"/>
+      <c r="I49" s="7">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="8">
         <v>44777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>130</v>
       </c>
@@ -7903,23 +8101,27 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="E50" s="9">
+        <f t="shared" si="2"/>
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F50" s="9">
         <v>0.5229166666666667</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>34</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
         <v>175</v>
       </c>
-      <c r="H50" s="7">
-        <f t="shared" si="0"/>
+      <c r="I50" s="7">
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="I50" s="8">
+      <c r="J50" s="8">
         <v>44781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>131</v>
       </c>
@@ -7933,23 +8135,27 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="E51" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71631944444444451</v>
+      </c>
+      <c r="F51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="7">
+      <c r="G51" s="7">
         <v>119</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H51" s="7">
         <v>295</v>
       </c>
-      <c r="H51" s="7">
-        <f t="shared" si="0"/>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="I51" s="8">
+      <c r="J51" s="8">
         <v>44784</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>132</v>
       </c>
@@ -7963,26 +8169,30 @@
         <v>0.51944444444444449</v>
       </c>
       <c r="E52" s="9">
+        <f t="shared" si="2"/>
+        <v>0.5409722222222223</v>
+      </c>
+      <c r="F52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="7">
+      <c r="G52" s="7">
         <v>67</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>88</v>
       </c>
-      <c r="H52" s="7">
-        <f t="shared" si="0"/>
+      <c r="I52" s="7">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I52" s="8">
+      <c r="J52" s="8">
         <v>44818</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>133</v>
       </c>
@@ -7996,23 +8206,27 @@
         <v>0.6479166666666667</v>
       </c>
       <c r="E53" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66770833333333346</v>
+      </c>
+      <c r="F53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="7">
+      <c r="G53" s="7">
         <v>162</v>
       </c>
-      <c r="G53" s="7">
+      <c r="H53" s="7">
         <v>266</v>
       </c>
-      <c r="H53" s="7">
-        <f t="shared" si="0"/>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="I53" s="8">
+      <c r="J53" s="8">
         <v>44818</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>134</v>
       </c>
@@ -8026,23 +8240,27 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="E54" s="9">
+        <f t="shared" si="2"/>
+        <v>0.70520833333333333</v>
+      </c>
+      <c r="F54" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F54" s="7">
+      <c r="G54" s="7">
         <v>43</v>
       </c>
-      <c r="G54" s="7">
+      <c r="H54" s="7">
         <v>157</v>
       </c>
-      <c r="H54" s="7">
-        <f t="shared" si="0"/>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>44823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>220</v>
       </c>
@@ -8056,23 +8274,27 @@
         <v>0.4375</v>
       </c>
       <c r="E55" s="9">
+        <f>(F55-D55)/2+D55-TIME(0,5,0)</f>
+        <v>0.45138888888888895</v>
+      </c>
+      <c r="F55" s="9">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F55" s="7">
+      <c r="G55" s="7">
         <v>388</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H55" s="7">
         <v>485</v>
       </c>
-      <c r="H55" s="7">
-        <f t="shared" si="0"/>
+      <c r="I55" s="7">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I55" s="8">
+      <c r="J55" s="8">
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>221</v>
       </c>
@@ -8086,23 +8308,27 @@
         <v>0.50138888888888888</v>
       </c>
       <c r="E56" s="9">
+        <f t="shared" si="2"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F56" s="9">
         <v>0.53055555555555556</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>637</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>778</v>
       </c>
-      <c r="H56" s="7">
-        <f t="shared" si="0"/>
+      <c r="I56" s="7">
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>44833</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>135</v>
       </c>
@@ -8116,23 +8342,27 @@
         <v>0.56874999999999998</v>
       </c>
       <c r="E57" s="9">
+        <f t="shared" si="2"/>
+        <v>0.58854166666666663</v>
+      </c>
+      <c r="F57" s="9">
         <v>0.61527777777777781</v>
       </c>
-      <c r="F57" s="7">
+      <c r="G57" s="7">
         <v>203</v>
       </c>
-      <c r="G57" s="7">
+      <c r="H57" s="7">
         <v>310</v>
       </c>
-      <c r="H57" s="7">
-        <f t="shared" si="0"/>
+      <c r="I57" s="7">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>44848</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>136</v>
       </c>
@@ -8146,23 +8376,27 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="E58" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71979166666666672</v>
+      </c>
+      <c r="F58" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F58" s="7">
+      <c r="G58" s="7">
         <v>163</v>
       </c>
-      <c r="G58" s="7">
+      <c r="H58" s="7">
         <v>384</v>
       </c>
-      <c r="H58" s="7">
-        <f t="shared" si="0"/>
+      <c r="I58" s="7">
+        <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J58" s="8">
         <v>44854</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>222</v>
       </c>
@@ -8176,23 +8410,27 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="E59" s="9">
+        <f t="shared" si="2"/>
+        <v>0.38715277777777779</v>
+      </c>
+      <c r="F59" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="F59" s="7">
+      <c r="G59" s="7">
         <v>265</v>
       </c>
-      <c r="G59" s="7">
+      <c r="H59" s="7">
         <v>532</v>
       </c>
-      <c r="H59" s="7">
-        <f t="shared" si="0"/>
+      <c r="I59" s="7">
+        <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="I59" s="8">
+      <c r="J59" s="8">
         <v>44855</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>223</v>
       </c>
@@ -8206,23 +8444,27 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E60" s="9">
+        <f t="shared" si="2"/>
+        <v>0.59756944444444449</v>
+      </c>
+      <c r="F60" s="9">
         <v>0.62916666666666665</v>
       </c>
-      <c r="F60" s="7">
+      <c r="G60" s="7">
         <v>51</v>
       </c>
-      <c r="G60" s="7">
+      <c r="H60" s="7">
         <v>113</v>
       </c>
-      <c r="H60" s="7">
-        <f t="shared" si="0"/>
+      <c r="I60" s="7">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I60" s="8">
+      <c r="J60" s="8">
         <v>44858</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>137</v>
       </c>
@@ -8236,23 +8478,27 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="E61" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66510416666666672</v>
+      </c>
+      <c r="F61" s="9">
         <v>0.68784722222222217</v>
       </c>
-      <c r="F61" s="7">
+      <c r="G61" s="7">
         <v>70</v>
       </c>
-      <c r="G61" s="7">
+      <c r="H61" s="7">
         <v>113</v>
       </c>
-      <c r="H61" s="7">
-        <f t="shared" si="0"/>
+      <c r="I61" s="7">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I61" s="8">
+      <c r="J61" s="8">
         <v>44860</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>224</v>
       </c>
@@ -8262,452 +8508,460 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="7">
+      <c r="F62" s="9"/>
+      <c r="G62" s="7">
         <v>109</v>
       </c>
-      <c r="G62" s="7">
+      <c r="H62" s="7">
         <v>261</v>
       </c>
-      <c r="H62" s="7">
-        <f t="shared" si="0"/>
+      <c r="I62" s="7">
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="I62" s="8">
+      <c r="J62" s="8">
         <v>44861</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F70" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F71" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F72" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F73" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F74" s="7"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F75" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F76" s="7"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F77" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F78" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F79" s="7"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F80" s="7"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F81" s="7"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F82" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F83" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F84" s="7"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F85" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F86" s="7"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F87" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F88" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F89" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F90" s="7"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F91" s="7"/>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F92" s="7"/>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F93" s="7"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F94" s="7"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F95" s="7"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F96" s="7"/>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F97" s="7"/>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F98" s="7"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F99" s="7"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F100" s="7"/>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F101" s="7"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F102" s="7"/>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F103" s="7"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F104" s="7"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F105" s="7"/>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F106" s="7"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F107" s="7"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F108" s="7"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F109" s="7"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F110" s="7"/>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F111" s="7"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F112" s="7"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F113" s="7"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F114" s="7"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F115" s="7"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F116" s="7"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F117" s="7"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F118" s="7"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F119" s="7"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F120" s="7"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F121" s="7"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F122" s="7"/>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F123" s="7"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F124" s="7"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F125" s="7"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F126" s="7"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F127" s="7"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F128" s="7"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F129" s="7"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F130" s="7"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F131" s="7"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F132" s="7"/>
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F133" s="7"/>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F134" s="7"/>
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F135" s="7"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F136" s="7"/>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F137" s="7"/>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F138" s="7"/>
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F139" s="7"/>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F140" s="7"/>
+      <c r="I139" s="7"/>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F141" s="7"/>
+      <c r="I140" s="7"/>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F142" s="7"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F143" s="7"/>
+      <c r="I142" s="7"/>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8723,13 +8977,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8745,13 +8999,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8767,13 +9021,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8789,13 +9043,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8811,13 +9065,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8833,13 +9087,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8855,13 +9109,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8877,13 +9131,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8899,13 +9153,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8921,13 +9175,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8943,13 +9197,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8965,13 +9219,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8987,13 +9241,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9009,13 +9263,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9031,13 +9285,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9053,13 +9307,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9075,13 +9329,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9097,13 +9351,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9119,13 +9373,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9141,13 +9395,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9163,13 +9417,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9185,13 +9439,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9207,13 +9461,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9229,13 +9483,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9251,13 +9505,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9273,13 +9527,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9295,13 +9549,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9317,13 +9571,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9339,13 +9593,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9361,13 +9615,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9383,13 +9637,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9405,13 +9659,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9427,13 +9681,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9449,13 +9703,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9471,13 +9725,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9493,16 +9747,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9515,16 +9769,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9537,16 +9791,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9559,16 +9813,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9581,16 +9835,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9603,16 +9857,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9625,16 +9879,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9647,16 +9901,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9669,16 +9923,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9691,16 +9945,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9713,16 +9967,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9735,16 +9989,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9757,16 +10011,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9779,16 +10033,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9801,16 +10055,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9823,16 +10077,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9845,16 +10099,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9867,16 +10121,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9889,16 +10143,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9911,16 +10165,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9933,16 +10187,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9955,16 +10209,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9977,13 +10231,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9999,13 +10253,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10021,13 +10275,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10043,13 +10297,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10065,13 +10319,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10087,13 +10341,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10109,13 +10363,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10131,13 +10385,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10153,16 +10407,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10175,16 +10429,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10197,16 +10451,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10219,16 +10473,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10241,13 +10495,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10263,13 +10517,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10285,13 +10539,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10307,16 +10561,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10329,13 +10583,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10351,16 +10605,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10373,13 +10627,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10395,13 +10649,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10417,16 +10671,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10439,13 +10693,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10461,16 +10715,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10483,13 +10737,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10505,13 +10759,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10527,13 +10781,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8167856-8D8C-4035-BB88-ABCD7EC317CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963645F7-ABA4-475D-B6F5-D49D1B276E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="-10464" yWindow="4308" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -688,7 +688,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -755,7 +755,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -822,7 +822,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -889,7 +889,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -956,7 +956,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1023,7 +1023,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1090,7 +1090,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1157,7 +1157,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1224,7 +1224,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1291,7 +1291,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1358,7 +1358,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1425,7 +1425,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1492,7 +1492,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1559,7 +1559,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1626,7 +1626,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1693,7 +1693,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1760,7 +1760,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1827,7 +1827,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1894,7 +1894,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1961,7 +1961,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2028,7 +2028,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2095,7 +2095,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2162,7 +2162,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2229,7 +2229,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2296,7 +2296,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2363,7 +2363,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2430,7 +2430,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2497,7 +2497,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2564,7 +2564,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2631,7 +2631,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2698,7 +2698,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2765,7 +2765,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2832,7 +2832,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2899,9 +2899,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2966,9 +2966,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3033,9 +3033,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3100,9 +3100,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3167,9 +3167,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3234,9 +3234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3301,9 +3301,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3368,9 +3368,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3435,9 +3435,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3502,9 +3502,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3569,9 +3569,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3636,9 +3636,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3703,9 +3703,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3770,9 +3770,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3837,9 +3837,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3904,9 +3904,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3971,9 +3971,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4038,9 +4038,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4105,9 +4105,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4172,9 +4172,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4239,9 +4239,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4306,9 +4306,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4373,7 +4373,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4440,7 +4440,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4507,7 +4507,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4574,7 +4574,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4641,7 +4641,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4708,7 +4708,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4775,7 +4775,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4842,7 +4842,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4909,7 +4909,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -4976,7 +4976,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5043,7 +5043,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5110,7 +5110,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5177,7 +5177,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5244,7 +5244,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5311,7 +5311,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5378,7 +5378,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5445,7 +5445,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5512,7 +5512,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5579,7 +5579,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5646,7 +5646,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5713,7 +5713,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5780,7 +5780,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5847,7 +5847,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5914,7 +5914,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5981,7 +5981,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6048,7 +6048,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6406,9 +6406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8479,10 +8479,10 @@
       </c>
       <c r="E61" s="9">
         <f t="shared" si="2"/>
-        <v>0.66510416666666672</v>
+        <v>0.66493055555555558</v>
       </c>
       <c r="F61" s="9">
-        <v>0.68784722222222217</v>
+        <v>0.6875</v>
       </c>
       <c r="G61" s="7">
         <v>70</v>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8167856-8D8C-4035-BB88-ABCD7EC317CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B8167856-8D8C-4035-BB88-ABCD7EC317CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E671F6C-C441-408F-B93F-5D65FE8BDA32}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -554,7 +543,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -688,7 +677,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -755,7 +744,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -822,7 +811,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -889,7 +878,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -956,7 +945,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1023,7 +1012,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1090,7 +1079,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1157,7 +1146,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1224,7 +1213,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1291,7 +1280,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1358,7 +1347,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1425,7 +1414,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1492,7 +1481,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1559,7 +1548,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1626,7 +1615,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1693,7 +1682,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1760,7 +1749,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1827,7 +1816,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1894,7 +1883,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1961,7 +1950,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2028,7 +2017,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2095,7 +2084,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2162,7 +2151,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2229,7 +2218,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2296,7 +2285,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2363,7 +2352,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2430,7 +2419,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2497,7 +2486,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2564,7 +2553,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2631,7 +2620,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2698,7 +2687,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2765,7 +2754,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2832,7 +2821,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2899,7 +2888,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -2966,7 +2955,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3033,7 +3022,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3100,7 +3089,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3167,7 +3156,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3234,7 +3223,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3301,7 +3290,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3368,7 +3357,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3435,7 +3424,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3502,7 +3491,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3569,7 +3558,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3636,7 +3625,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3703,7 +3692,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3770,7 +3759,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3837,7 +3826,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3904,7 +3893,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3971,7 +3960,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -4038,7 +4027,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -4105,7 +4094,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -4172,7 +4161,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -4239,7 +4228,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -4306,7 +4295,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -4373,7 +4362,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4440,7 +4429,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4507,7 +4496,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4574,7 +4563,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4641,7 +4630,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4708,7 +4697,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4775,7 +4764,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4842,7 +4831,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4909,7 +4898,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -4976,7 +4965,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5043,7 +5032,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5110,7 +5099,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5177,7 +5166,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5244,7 +5233,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5311,7 +5300,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5378,7 +5367,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5445,7 +5434,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5512,7 +5501,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5579,7 +5568,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5646,7 +5635,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5713,7 +5702,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5780,7 +5769,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5847,7 +5836,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
@@ -5914,7 +5903,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5981,7 +5970,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6048,7 +6037,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6407,8 +6396,8 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8524,6 +8513,9 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>225</v>
+      </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -8534,6 +8526,9 @@
       <c r="I63" s="7"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>226</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B8167856-8D8C-4035-BB88-ABCD7EC317CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E671F6C-C441-408F-B93F-5D65FE8BDA32}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{B8167856-8D8C-4035-BB88-ABCD7EC317CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{46FD160B-EA22-40EB-A655-E7C8C065552A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -526,6 +526,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -6050,6 +6058,140 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>896</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6396,8 +6538,8 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7179,7 +7321,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I62" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I64" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -7747,7 +7889,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" ref="E40:E61" si="2">(F40-D40)/2+D40-TIME(0,5,0)</f>
+        <f t="shared" ref="E40:E63" si="2">(F40-D40)/2+D40-TIME(0,5,0)</f>
         <v>0.59930555555555554</v>
       </c>
       <c r="F40" s="9">
@@ -8492,12 +8634,21 @@
         <v>224</v>
       </c>
       <c r="B62" s="9">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0.71388888888888891</v>
+      </c>
       <c r="G62" s="7">
         <v>109</v>
       </c>
@@ -8516,27 +8667,69 @@
       <c r="A63" s="6">
         <v>225</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="B63" s="9">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="E63" s="9">
+        <f>(F63-D63)/2+D63-TIME(0,5,0)</f>
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="G63" s="7">
+        <v>291</v>
+      </c>
+      <c r="H63" s="7">
+        <v>838</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="J63" s="8">
+        <v>44875</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>226</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="B64" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="E64" s="9">
+        <f>(F64-D64)/2+D64-TIME(0,5,0)</f>
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="G64" s="7">
+        <v>310</v>
+      </c>
+      <c r="H64" s="7">
+        <v>418</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="J64" s="8">
+        <v>44880</v>
+      </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
@@ -10792,6 +10985,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId87" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId88" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963645F7-ABA4-475D-B6F5-D49D1B276E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FAF3D-60FB-4AB0-B116-A12BDB1ECB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10464" yWindow="4308" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -537,6 +537,18 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -6101,6 +6113,192 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1216660" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF24D3E-A026-4FAA-96BC-2B3EF8B920C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1216660" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211E904D-2BFC-4B3E-A405-89CDD1821B5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1216660" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3038CDD1-3D06-4952-8DF1-EDEBC114DED3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6407,8 +6605,8 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7190,7 +7388,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I62" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I64" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -7758,7 +7956,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" ref="E40:E61" si="2">(F40-D40)/2+D40-TIME(0,5,0)</f>
+        <f t="shared" ref="E40:E62" si="2">(F40-D40)/2+D40-TIME(0,5,0)</f>
         <v>0.59930555555555554</v>
       </c>
       <c r="F40" s="9">
@@ -8503,12 +8701,21 @@
         <v>224</v>
       </c>
       <c r="B62" s="9">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="2"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0.71388888888888891</v>
+      </c>
       <c r="G62" s="7">
         <v>109</v>
       </c>
@@ -8524,24 +8731,72 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="A63" s="6">
+        <v>225</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="E63" s="9">
+        <f>(F63-D63)/2+D63-TIME(0,5,0)</f>
+        <v>0.69513888888888897</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="G63" s="7">
+        <v>291</v>
+      </c>
+      <c r="H63" s="7">
+        <v>838</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+      <c r="J63" s="8">
+        <v>44875</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="A64" s="6">
+        <v>226</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="E64" s="9">
+        <f>(F64-D64)/2+D64-TIME(0,5,0)</f>
+        <v>0.68263888888888891</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="G64" s="7">
+        <v>310</v>
+      </c>
+      <c r="H64" s="7">
+        <v>418</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="J64" s="8">
+        <v>44880</v>
+      </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
@@ -10797,6 +11052,72 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId87" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>61</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId88" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>62</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId89" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FAF3D-60FB-4AB0-B116-A12BDB1ECB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D391989-0109-44C6-B9AB-CA28914F67E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -538,15 +538,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2913,7 +2913,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2980,7 +2980,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3047,7 +3047,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3114,7 +3114,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3181,7 +3181,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3248,7 +3248,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3315,7 +3315,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3382,7 +3382,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3449,7 +3449,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3516,7 +3516,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3583,7 +3583,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3650,7 +3650,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3717,7 +3717,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3784,7 +3784,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3851,7 +3851,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3918,7 +3918,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3985,7 +3985,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4052,7 +4052,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4119,7 +4119,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4186,7 +4186,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4253,7 +4253,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4320,7 +4320,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6118,14 +6118,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1216660" cy="203200"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
@@ -6134,7 +6139,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF24D3E-A026-4FAA-96BC-2B3EF8B920C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6174,20 +6179,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1216660" cy="203200"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
@@ -6196,7 +6206,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211E904D-2BFC-4B3E-A405-89CDD1821B5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6236,20 +6246,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1216660" cy="203200"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
@@ -6258,7 +6273,7 @@
                   <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3038CDD1-3D06-4952-8DF1-EDEBC114DED3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6298,7 +6313,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6605,7 +6620,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/02_paper/02_study/02_fitbit paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D391989-0109-44C6-B9AB-CA28914F67E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BAFA675F-271D-40CB-9823-5B7C0325A162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2912,8 +2901,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2979,8 +2968,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3046,8 +3035,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3113,8 +3102,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3180,8 +3169,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3247,8 +3236,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3314,8 +3303,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3381,8 +3370,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3448,8 +3437,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3515,8 +3504,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3582,8 +3571,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3649,8 +3638,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3716,8 +3705,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3783,8 +3772,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3850,8 +3839,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3917,8 +3906,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3984,8 +3973,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4051,8 +4040,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4118,8 +4107,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4185,8 +4174,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4252,8 +4241,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4319,8 +4308,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6617,11 +6606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7403,7 +7392,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I64" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I67" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -8813,37 +8802,109 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>227</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0.39097222222222222</v>
+      </c>
+      <c r="D65" s="9">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="E65" s="9">
+        <f>(F65-D65)/2+D65-TIME(0,5,0)</f>
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="G65" s="7">
+        <v>79</v>
+      </c>
+      <c r="H65" s="7">
+        <v>152</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="J65" s="8">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>138</v>
+      </c>
+      <c r="B66" s="9">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="E66" s="9">
+        <f>(F66-D66)/2+D66-TIME(0,5,0)</f>
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="G66" s="7">
+        <v>93</v>
+      </c>
+      <c r="H66" s="7">
+        <v>151</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J66" s="8">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>139</v>
+      </c>
+      <c r="B67" s="9">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="E67" s="9">
+        <f>(F67-D67)/2+D67-TIME(0,5,0)</f>
+        <v>0.67326388888888888</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="G67" s="7">
+        <v>18</v>
+      </c>
+      <c r="H67" s="7">
+        <v>28</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J67" s="8">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -8853,7 +8914,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -8863,57 +8924,62 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -9232,6 +9298,11 @@
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/02_paper/02_study/02_fitbit paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BAFA675F-271D-40CB-9823-5B7C0325A162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BC8493B6-B3B9-499B-8137-B013B21BA9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -178,9 +178,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2902,7 +2903,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2969,7 +2970,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3036,7 +3037,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3103,7 +3104,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3170,7 +3171,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3237,7 +3238,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3304,7 +3305,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3371,7 +3372,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3438,7 +3439,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3505,7 +3506,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3572,7 +3573,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3639,7 +3640,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3706,7 +3707,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3773,7 +3774,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3840,7 +3841,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3907,7 +3908,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3974,7 +3975,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4041,7 +4042,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4108,7 +4109,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4175,7 +4176,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4242,7 +4243,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4309,7 +4310,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4912,7 +4913,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4979,7 +4980,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5046,7 +5047,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5113,7 +5114,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5381,7 +5382,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5515,7 +5516,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5716,7 +5717,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5850,7 +5851,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6610,7 +6611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7392,7 +7393,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I67" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I72" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -8905,44 +8906,174 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="A68" s="6">
+        <v>140</v>
+      </c>
+      <c r="B68" s="10">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E68" s="9">
+        <f>(F68-D68)/2+D68-TIME(0,5,0)</f>
+        <v>0.45868055555555559</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="G68" s="7">
+        <v>93</v>
+      </c>
+      <c r="H68" s="7">
+        <v>192</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="J68" s="8">
+        <v>44946</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
+      <c r="A69" s="6">
+        <v>228</v>
+      </c>
+      <c r="B69" s="10">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="E69" s="9">
+        <f>(F69-D69)/2+D69-TIME(0,5,0)</f>
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="G69" s="7">
+        <v>117</v>
+      </c>
+      <c r="H69" s="7">
+        <v>234</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="J69" s="8">
+        <v>44950</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="A70" s="6">
+        <v>141</v>
+      </c>
+      <c r="B70" s="10">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0.46875</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E70" s="9">
+        <f>(F70-D70)/2+D70-TIME(0,5,0)</f>
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="G70" s="7">
+        <v>163</v>
+      </c>
+      <c r="H70" s="7">
+        <v>254</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="J70" s="8">
+        <v>44958</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="A71" s="6">
+        <v>229</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="E71" s="9">
+        <f>(F71-D71)/2+D71-TIME(0,5,0)</f>
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G71" s="7">
+        <v>315</v>
+      </c>
+      <c r="H71" s="7">
+        <v>659</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="J71" s="8">
+        <v>44965</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
+      <c r="A72" s="6">
+        <v>230</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E72" s="9">
+        <f>(F72-D72)/2+D72-TIME(0,5,0)</f>
+        <v>0.41770833333333335</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="G72" s="7">
+        <v>136</v>
+      </c>
+      <c r="H72" s="7">
+        <v>307</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="J72" s="8">
+        <v>44966</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G73" s="7"/>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KlattKachelAdmin\Documents\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C62CE99-A74D-4A57-8AD6-41D0682BB3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A381E5BB-BAEA-4FCD-B2BB-3A681F7FBE02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID participant</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>16:26:00</t>
+  </si>
+  <si>
+    <t>Mid Interview -5</t>
   </si>
 </sst>
 </file>
@@ -548,14 +551,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -615,13 +618,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -682,14 +685,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -749,14 +752,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -816,14 +819,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -883,14 +886,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -950,14 +953,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1017,14 +1020,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1084,14 +1087,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1151,14 +1154,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1218,14 +1221,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1285,14 +1288,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1352,14 +1355,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1419,14 +1422,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1486,14 +1489,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1553,14 +1556,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1620,14 +1623,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1687,14 +1690,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1754,14 +1757,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1821,14 +1824,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1888,14 +1891,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1955,14 +1958,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2022,14 +2025,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2089,14 +2092,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2156,14 +2159,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2223,14 +2226,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2290,14 +2293,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2357,14 +2360,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2424,14 +2427,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2491,14 +2494,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2558,14 +2561,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2625,14 +2628,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2692,14 +2695,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2759,14 +2762,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2826,14 +2829,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2893,14 +2896,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -2960,14 +2963,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3027,14 +3030,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3094,14 +3097,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3161,14 +3164,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3228,14 +3231,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3295,14 +3298,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3362,14 +3365,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3429,14 +3432,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3496,14 +3499,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3563,14 +3566,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3630,14 +3633,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3697,14 +3700,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3764,14 +3767,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3831,14 +3834,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -3898,14 +3901,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -3965,14 +3968,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -4032,14 +4035,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -4099,14 +4102,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -4166,14 +4169,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -4233,14 +4236,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
@@ -4300,14 +4303,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
@@ -4367,14 +4370,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4434,14 +4437,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4501,14 +4504,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4568,14 +4571,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4635,14 +4638,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4702,14 +4705,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4769,14 +4772,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4836,14 +4839,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4903,14 +4906,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -4970,14 +4973,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -5037,14 +5040,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -5104,14 +5107,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
@@ -5171,14 +5174,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5238,14 +5241,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5305,14 +5308,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5370,14 +5373,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -5386,7 +5394,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267047B9-9B31-4DC2-ADD6-2152D1E16F19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5426,20 +5434,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -5448,7 +5461,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B197BC5D-CCE4-46DE-B41E-6923A4908B55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5488,20 +5501,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -5510,7 +5528,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827B1EDE-D49B-439A-B346-773C86EB9CCF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5550,20 +5568,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -5572,7 +5595,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97914DF1-84AA-416F-B8EC-C2CF2DC346F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5612,20 +5635,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -5634,7 +5662,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A5FBE4-57DD-45BA-98D3-9F5EB918EC90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5674,20 +5702,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -5696,7 +5729,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75752A32-E4FD-4E6C-ABB3-E942397B3647}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5736,20 +5769,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -5758,7 +5796,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF391A33-37F4-434A-94FE-4AC67AF21172}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5798,20 +5836,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="204843"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
@@ -5820,7 +5863,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B2B300-B375-41F7-A48D-62D45289B2EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5860,20 +5903,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="197224"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
@@ -5882,7 +5930,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA98E17-DDA9-4F9C-B546-F00D2C7B8B77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5922,20 +5970,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="198120"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -5944,7 +5997,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11C8FDB-A6F7-405C-9C52-FF3110D84F84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5984,20 +6037,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
+          <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1221890" cy="198120"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
@@ -6006,7 +6064,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19851A9-FB9D-4DC3-9B46-985B5F422502}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6046,7 +6104,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -6350,11 +6408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:K143"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6362,17 +6420,17 @@
     <col min="1" max="1" width="18.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.69921875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="6"/>
-    <col min="10" max="10" width="16.19921875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" style="3"/>
+    <col min="4" max="5" width="19.296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="6"/>
+    <col min="11" max="11" width="16.19921875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6386,28 +6444,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>101</v>
       </c>
@@ -6421,22 +6482,26 @@
         <v>0.6777777777777777</v>
       </c>
       <c r="E2" s="7">
+        <f t="shared" ref="E2:E33" si="0">(F2-D2)/2+D2-TIME(0,5,0)</f>
+        <v>0.69895833333333324</v>
+      </c>
+      <c r="F2" s="7">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>824</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>867</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>43</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="13">
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>102</v>
       </c>
@@ -6450,22 +6515,26 @@
         <v>0.67986111111111114</v>
       </c>
       <c r="E3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.71215277777777786</v>
+      </c>
+      <c r="F3" s="7">
         <v>0.75138888888888899</v>
       </c>
-      <c r="F3" s="10">
+      <c r="G3" s="10">
         <v>128</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>152</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>24</v>
       </c>
-      <c r="I3" s="13">
+      <c r="J3" s="13">
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>103</v>
       </c>
@@ -6479,19 +6548,23 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.66249999999999998</v>
       </c>
-      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="13">
+      <c r="I4" s="10"/>
+      <c r="J4" s="13">
         <v>44405</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>104</v>
       </c>
@@ -6505,22 +6578,26 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64618055555555565</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>83</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>134</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>51</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>201</v>
       </c>
@@ -6534,22 +6611,26 @@
         <v>0.54027777777777775</v>
       </c>
       <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.57326388888888891</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <v>1025</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>1138</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>113</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>105</v>
       </c>
@@ -6563,22 +6644,26 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>86</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>192</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>106</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>106</v>
       </c>
@@ -6592,22 +6677,26 @@
         <v>0.4597222222222222</v>
       </c>
       <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.48194444444444451</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>63</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>199</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>136</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="13">
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -6621,22 +6710,26 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.74062499999999998</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>157</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>528</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>371</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13">
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -6650,22 +6743,26 @@
         <v>0.65486111111111112</v>
       </c>
       <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67465277777777777</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>62</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>260</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>198</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="13">
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>107</v>
       </c>
@@ -6679,22 +6776,26 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="F11" s="7">
         <v>0.54652777777777783</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>112</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>232</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>120</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13">
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>108</v>
       </c>
@@ -6708,23 +6809,27 @@
         <v>0.49027777777777781</v>
       </c>
       <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5097222222222223</v>
+      </c>
+      <c r="F12" s="7">
         <v>0.53611111111111109</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>63</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>88</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>25</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13">
         <v>44482</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>109</v>
       </c>
@@ -6738,23 +6843,27 @@
         <v>0.66111111111111109</v>
       </c>
       <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.6850694444444444</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.71597222222222223</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>202</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>318</v>
       </c>
-      <c r="H13" s="10">
-        <f>G13-F13</f>
+      <c r="I13" s="10">
+        <f>H13-G13</f>
         <v>116</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="13">
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>110</v>
       </c>
@@ -6768,22 +6877,26 @@
         <v>0.58263888888888882</v>
       </c>
       <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60486111111111107</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.63402777777777775</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>59</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>108</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>49</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J14" s="13">
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>204</v>
       </c>
@@ -6797,23 +6910,27 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="10">
         <v>114</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>225</v>
       </c>
-      <c r="H15" s="10">
-        <f>SUM(G15-F15)</f>
+      <c r="I15" s="10">
+        <f>SUM(H15-G15)</f>
         <v>111</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13">
         <v>44512</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>111</v>
       </c>
@@ -6827,23 +6944,27 @@
         <v>0.6777777777777777</v>
       </c>
       <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.68888888888888877</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.70694444444444438</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="10">
         <v>170</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>259</v>
       </c>
-      <c r="H16" s="10">
-        <f>SUM(G16-F16)</f>
+      <c r="I16" s="10">
+        <f>SUM(H16-G16)</f>
         <v>89</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13">
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>112</v>
       </c>
@@ -6857,23 +6978,27 @@
         <v>0.45277777777777778</v>
       </c>
       <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="F17" s="7">
         <v>0.49861111111111112</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>225</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>351</v>
       </c>
-      <c r="H17" s="10">
-        <f>SUM(G17-F17)</f>
+      <c r="I17" s="10">
+        <f>SUM(H17-G17)</f>
         <v>126</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <v>44547</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>205</v>
       </c>
@@ -6886,24 +7011,28 @@
       <c r="D18" s="9">
         <v>0.4458333333333333</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F18" s="8">
         <v>0.5083333333333333</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>160</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>189</v>
       </c>
-      <c r="H18" s="10">
-        <f>SUM(G18-F18)</f>
+      <c r="I18" s="10">
+        <f>SUM(H18-G18)</f>
         <v>29</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13">
         <v>44526</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>206</v>
       </c>
@@ -6917,22 +7046,26 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.46840277777777778</v>
+      </c>
+      <c r="F19" s="7">
         <v>0.49513888888888885</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>233</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="10">
         <v>318</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
         <v>85</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J19" s="13">
         <v>44568</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>113</v>
       </c>
@@ -6946,23 +7079,27 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.58541666666666659</v>
+      </c>
+      <c r="F20" s="7">
         <v>0.60972222222222217</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <v>138</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>491</v>
       </c>
-      <c r="H20" s="10">
-        <f>G20-F20</f>
+      <c r="I20" s="10">
+        <f>H20-G20</f>
         <v>353</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="13">
         <v>44571</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>207</v>
       </c>
@@ -6976,23 +7113,27 @@
         <v>0.44375000000000003</v>
       </c>
       <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47534722222222225</v>
+      </c>
+      <c r="F21" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>276</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>585</v>
       </c>
-      <c r="H21" s="10">
-        <f>G21-F21</f>
+      <c r="I21" s="10">
+        <f>H21-G21</f>
         <v>309</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J21" s="13">
         <v>44578</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>114</v>
       </c>
@@ -7006,23 +7147,27 @@
         <v>0.6743055555555556</v>
       </c>
       <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.69652777777777786</v>
+      </c>
+      <c r="F22" s="7">
         <v>0.72569444444444453</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="10">
         <v>107</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <v>179</v>
       </c>
-      <c r="H22" s="10">
-        <f>G22-F22</f>
+      <c r="I22" s="10">
+        <f>H22-G22</f>
         <v>72</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="13">
         <v>44572</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>115</v>
       </c>
@@ -7036,23 +7181,27 @@
         <v>0.42777777777777781</v>
       </c>
       <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.44652777777777786</v>
+      </c>
+      <c r="F23" s="7">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>187</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>754</v>
       </c>
-      <c r="H23" s="10">
-        <f t="shared" ref="H23:H62" si="0">G23-F23</f>
+      <c r="I23" s="10">
+        <f t="shared" ref="I23:I62" si="1">H23-G23</f>
         <v>567</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="13">
         <v>44580</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>116</v>
       </c>
@@ -7066,23 +7215,27 @@
         <v>0.57708333333333328</v>
       </c>
       <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60104166666666659</v>
+      </c>
+      <c r="F24" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>170</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <v>630</v>
       </c>
-      <c r="H24" s="10">
-        <f t="shared" si="0"/>
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="I24" s="13">
+      <c r="J24" s="13">
         <v>44585</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>117</v>
       </c>
@@ -7096,26 +7249,30 @@
         <v>0.56736111111111109</v>
       </c>
       <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="F25" s="7">
         <v>0.61458333333333337</v>
-      </c>
-      <c r="F25" s="10">
-        <v>38</v>
       </c>
       <c r="G25" s="10">
         <v>38</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J25" s="13">
         <v>44592</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>118</v>
       </c>
@@ -7129,23 +7286,27 @@
         <v>0.49236111111111108</v>
       </c>
       <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="F26" s="7">
         <v>0.53680555555555554</v>
       </c>
-      <c r="F26" s="10">
+      <c r="G26" s="10">
         <v>42</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>438</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="0"/>
+      <c r="I26" s="10">
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J26" s="13">
         <v>44606</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>119</v>
       </c>
@@ -7159,23 +7320,27 @@
         <v>0.48472222222222222</v>
       </c>
       <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="F27" s="7">
         <v>0.53333333333333333</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>225</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>322</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="0"/>
+      <c r="I27" s="10">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I27" s="13">
+      <c r="J27" s="13">
         <v>44608</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>120</v>
       </c>
@@ -7189,23 +7354,27 @@
         <v>0.62013888888888891</v>
       </c>
       <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63993055555555556</v>
+      </c>
+      <c r="F28" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="10">
         <v>95</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <v>188</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="0"/>
+      <c r="I28" s="10">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="13">
         <v>44620</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>121</v>
       </c>
@@ -7219,23 +7388,27 @@
         <v>0.44930555555555557</v>
       </c>
       <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="F29" s="7">
         <v>0.50486111111111109</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="10">
         <v>143</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <v>234</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" si="0"/>
+      <c r="I29" s="10">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="I29" s="13">
+      <c r="J29" s="13">
         <v>44622</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>208</v>
       </c>
@@ -7249,23 +7422,27 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="F30" s="7">
         <v>0.55694444444444446</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="10">
         <v>38</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>126</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" si="0"/>
+      <c r="I30" s="10">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="I30" s="13">
+      <c r="J30" s="13">
         <v>44659</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>209</v>
       </c>
@@ -7279,23 +7456,27 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49895833333333339</v>
+      </c>
+      <c r="F31" s="7">
         <v>0.52708333333333335</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="10">
         <v>155</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>176</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="0"/>
+      <c r="I31" s="10">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I31" s="13">
+      <c r="J31" s="13">
         <v>44664</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>122</v>
       </c>
@@ -7309,23 +7490,27 @@
         <v>0.65138888888888891</v>
       </c>
       <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67951388888888886</v>
+      </c>
+      <c r="F32" s="7">
         <v>0.71458333333333324</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="10">
         <v>122</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <v>328</v>
       </c>
-      <c r="H32" s="10">
-        <f t="shared" si="0"/>
+      <c r="I32" s="10">
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="I32" s="13">
+      <c r="J32" s="13">
         <v>44670</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>210</v>
       </c>
@@ -7339,23 +7524,27 @@
         <v>0.68472222222222223</v>
       </c>
       <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70659722222222221</v>
+      </c>
+      <c r="F33" s="7">
         <v>0.73541666666666661</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>1333</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <v>1419</v>
       </c>
-      <c r="H33" s="10">
-        <f t="shared" si="0"/>
+      <c r="I33" s="10">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="I33" s="13">
+      <c r="J33" s="13">
         <v>44677</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>211</v>
       </c>
@@ -7369,23 +7558,27 @@
         <v>0.60972222222222217</v>
       </c>
       <c r="E34" s="7">
+        <f t="shared" ref="E34:E42" si="2">(F34-D34)/2+D34-TIME(0,5,0)</f>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="F34" s="7">
         <v>0.6694444444444444</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>414</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <v>433</v>
       </c>
-      <c r="H34" s="10">
-        <f t="shared" si="0"/>
+      <c r="I34" s="10">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I34" s="13">
+      <c r="J34" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>212</v>
       </c>
@@ -7399,23 +7592,27 @@
         <v>0.69861111111111107</v>
       </c>
       <c r="E35" s="7">
+        <f t="shared" si="2"/>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="F35" s="7">
         <v>0.75</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
         <v>589</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <v>633</v>
       </c>
-      <c r="H35" s="10">
-        <f t="shared" si="0"/>
+      <c r="I35" s="10">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J35" s="13">
         <v>44686</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>213</v>
       </c>
@@ -7429,23 +7626,27 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="E36" s="7">
+        <f t="shared" si="2"/>
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="F36" s="7">
         <v>0.60625000000000007</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>133</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <v>317</v>
       </c>
-      <c r="H36" s="10">
-        <f t="shared" si="0"/>
+      <c r="I36" s="10">
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J36" s="13">
         <v>44700</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>123</v>
       </c>
@@ -7459,23 +7660,27 @@
         <v>0.61041666666666672</v>
       </c>
       <c r="E37" s="7">
+        <f t="shared" si="2"/>
+        <v>0.62534722222222228</v>
+      </c>
+      <c r="F37" s="7">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
         <v>1155</v>
       </c>
-      <c r="G37" s="10">
+      <c r="H37" s="10">
         <v>1309</v>
       </c>
-      <c r="H37" s="10">
-        <f t="shared" si="0"/>
+      <c r="I37" s="10">
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J37" s="13">
         <v>44701</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>214</v>
       </c>
@@ -7489,23 +7694,27 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="E38" s="7">
+        <f t="shared" si="2"/>
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="F38" s="7">
         <v>0.5854166666666667</v>
       </c>
-      <c r="F38" s="10">
+      <c r="G38" s="10">
         <v>686</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <v>883</v>
       </c>
-      <c r="H38" s="10">
-        <f t="shared" si="0"/>
+      <c r="I38" s="10">
+        <f t="shared" si="1"/>
         <v>197</v>
       </c>
-      <c r="I38" s="13">
+      <c r="J38" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>215</v>
       </c>
@@ -7519,23 +7728,27 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="E39" s="7">
+        <f t="shared" si="2"/>
+        <v>0.65104166666666663</v>
+      </c>
+      <c r="F39" s="7">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="10">
         <v>1526</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <v>1648</v>
       </c>
-      <c r="H39" s="10">
-        <f t="shared" si="0"/>
+      <c r="I39" s="10">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="I39" s="13">
+      <c r="J39" s="13">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>124</v>
       </c>
@@ -7549,23 +7762,27 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E40" s="7">
+        <f t="shared" si="2"/>
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="F40" s="7">
         <v>0.63263888888888886</v>
       </c>
-      <c r="F40" s="10">
+      <c r="G40" s="10">
         <v>25</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <v>45</v>
       </c>
-      <c r="H40" s="10">
-        <f t="shared" si="0"/>
+      <c r="I40" s="10">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I40" s="13">
+      <c r="J40" s="13">
         <v>44715</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>216</v>
       </c>
@@ -7579,23 +7796,27 @@
         <v>0.64861111111111114</v>
       </c>
       <c r="E41" s="7">
+        <f t="shared" si="2"/>
+        <v>0.67187500000000011</v>
+      </c>
+      <c r="F41" s="7">
         <v>0.70208333333333339</v>
       </c>
-      <c r="F41" s="10">
+      <c r="G41" s="10">
         <v>120</v>
       </c>
-      <c r="G41" s="10">
+      <c r="H41" s="10">
         <v>176</v>
       </c>
-      <c r="H41" s="10">
-        <f t="shared" si="0"/>
+      <c r="I41" s="10">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="I41" s="13">
+      <c r="J41" s="13">
         <v>44719</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>125</v>
       </c>
@@ -7609,23 +7830,27 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="E42" s="7">
+        <f t="shared" si="2"/>
+        <v>0.45868055555555554</v>
+      </c>
+      <c r="F42" s="7">
         <v>0.4826388888888889</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="10">
         <v>75</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <v>199</v>
       </c>
-      <c r="H42" s="10">
-        <f t="shared" si="0"/>
+      <c r="I42" s="10">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="I42" s="13">
+      <c r="J42" s="13">
         <v>44720</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>217</v>
       </c>
@@ -7639,23 +7864,27 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="E43" s="7">
+        <f>(F43-D43)/2+D43-TIME(0,5,0)</f>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F43" s="7">
         <v>0.52986111111111112</v>
       </c>
-      <c r="F43" s="10">
+      <c r="G43" s="10">
         <v>410</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="10">
         <v>449</v>
       </c>
-      <c r="H43" s="10">
-        <f t="shared" si="0"/>
+      <c r="I43" s="10">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I43" s="13">
+      <c r="J43" s="13">
         <v>44725</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>218</v>
       </c>
@@ -7669,23 +7898,27 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="E44" s="7">
+        <f t="shared" ref="E44:E63" si="3">(F44-D44)/2+D44-TIME(0,5,0)</f>
+        <v>0.38020833333333337</v>
+      </c>
+      <c r="F44" s="7">
         <v>0.40902777777777777</v>
       </c>
-      <c r="F44" s="10">
+      <c r="G44" s="10">
         <v>62</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <v>149</v>
       </c>
-      <c r="H44" s="10">
-        <f t="shared" si="0"/>
+      <c r="I44" s="10">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="I44" s="13">
+      <c r="J44" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>219</v>
       </c>
@@ -7699,23 +7932,27 @@
         <v>0.44513888888888892</v>
       </c>
       <c r="E45" s="7">
+        <f t="shared" si="3"/>
+        <v>0.45763888888888893</v>
+      </c>
+      <c r="F45" s="7">
         <v>0.4770833333333333</v>
       </c>
-      <c r="F45" s="10">
+      <c r="G45" s="10">
         <v>442</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H45" s="10">
         <v>631</v>
       </c>
-      <c r="H45" s="10">
-        <f t="shared" si="0"/>
+      <c r="I45" s="10">
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="I45" s="13">
+      <c r="J45" s="13">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>126</v>
       </c>
@@ -7728,27 +7965,31 @@
       <c r="D46" s="8">
         <v>0.52638888888888891</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
+        <f t="shared" si="3"/>
+        <v>0.54131944444444446</v>
+      </c>
+      <c r="F46" s="8">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F46" s="10">
+      <c r="G46" s="10">
         <v>129</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <v>394</v>
       </c>
-      <c r="H46" s="10">
-        <f t="shared" si="0"/>
+      <c r="I46" s="10">
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="I46" s="13">
+      <c r="J46" s="13">
         <v>44749</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>127</v>
       </c>
@@ -7761,24 +8002,28 @@
       <c r="D47" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
+        <f t="shared" si="3"/>
+        <v>0.46909722222222222</v>
+      </c>
+      <c r="F47" s="8">
         <v>0.50208333333333333</v>
       </c>
-      <c r="F47" s="10">
+      <c r="G47" s="10">
         <v>283</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="10">
         <v>404</v>
       </c>
-      <c r="H47" s="10">
-        <f t="shared" si="0"/>
+      <c r="I47" s="10">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="I47" s="13">
+      <c r="J47" s="13">
         <v>44750</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>128</v>
       </c>
@@ -7791,24 +8036,28 @@
       <c r="D48" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
+        <f t="shared" si="3"/>
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="F48" s="9">
         <v>0.69791666666666663</v>
       </c>
-      <c r="F48" s="10">
+      <c r="G48" s="10">
         <v>23</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <v>101</v>
       </c>
-      <c r="H48" s="10">
-        <f t="shared" si="0"/>
+      <c r="I48" s="10">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="I48" s="13">
+      <c r="J48" s="13">
         <v>44768</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>129</v>
       </c>
@@ -7821,24 +8070,28 @@
       <c r="D49" s="9">
         <v>0.6875</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
+        <f t="shared" si="3"/>
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="F49" s="9">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F49" s="10">
+      <c r="G49" s="10">
         <v>155</v>
       </c>
-      <c r="G49" s="10">
+      <c r="H49" s="10">
         <v>251</v>
       </c>
-      <c r="H49" s="10">
-        <f t="shared" si="0"/>
+      <c r="I49" s="10">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="I49" s="13">
+      <c r="J49" s="13">
         <v>44777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>130</v>
       </c>
@@ -7851,24 +8104,28 @@
       <c r="D50" s="9">
         <v>0.48541666666666666</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
+        <f t="shared" si="3"/>
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="F50" s="9">
         <v>0.5229166666666667</v>
       </c>
-      <c r="F50" s="10">
+      <c r="G50" s="10">
         <v>34</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="10">
         <v>175</v>
       </c>
-      <c r="H50" s="10">
-        <f t="shared" si="0"/>
+      <c r="I50" s="10">
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="I50" s="13">
+      <c r="J50" s="13">
         <v>44781</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>131</v>
       </c>
@@ -7881,24 +8138,28 @@
       <c r="D51" s="9">
         <v>0.69166666666666676</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
+        <f t="shared" si="3"/>
+        <v>0.71631944444444451</v>
+      </c>
+      <c r="F51" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F51" s="10">
+      <c r="G51" s="10">
         <v>119</v>
       </c>
-      <c r="G51" s="10">
+      <c r="H51" s="10">
         <v>295</v>
       </c>
-      <c r="H51" s="10">
-        <f t="shared" si="0"/>
+      <c r="I51" s="10">
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="I51" s="13">
+      <c r="J51" s="13">
         <v>44784</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>132</v>
       </c>
@@ -7911,27 +8172,31 @@
       <c r="D52" s="9">
         <v>0.51944444444444449</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
+        <f t="shared" si="3"/>
+        <v>0.5409722222222223</v>
+      </c>
+      <c r="F52" s="9">
         <v>0.56944444444444442</v>
       </c>
-      <c r="F52" s="10">
+      <c r="G52" s="10">
         <v>67</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <v>88</v>
       </c>
-      <c r="H52" s="10">
-        <f t="shared" si="0"/>
+      <c r="I52" s="10">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I52" s="13">
+      <c r="J52" s="13">
         <v>44818</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>133</v>
       </c>
@@ -7944,24 +8209,28 @@
       <c r="D53" s="9">
         <v>0.6479166666666667</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
+        <f t="shared" si="3"/>
+        <v>0.66770833333333346</v>
+      </c>
+      <c r="F53" s="9">
         <v>0.69444444444444453</v>
       </c>
-      <c r="F53" s="10">
+      <c r="G53" s="10">
         <v>162</v>
       </c>
-      <c r="G53" s="10">
+      <c r="H53" s="10">
         <v>266</v>
       </c>
-      <c r="H53" s="10">
-        <f t="shared" si="0"/>
+      <c r="I53" s="10">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="I53" s="13">
+      <c r="J53" s="13">
         <v>44818</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>134</v>
       </c>
@@ -7974,24 +8243,28 @@
       <c r="D54" s="9">
         <v>0.69027777777777777</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
+        <f>(F54-D54)/2+D54-TIME(0,5,0)</f>
+        <v>0.70520833333333333</v>
+      </c>
+      <c r="F54" s="9">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F54" s="10">
+      <c r="G54" s="10">
         <v>43</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <v>157</v>
       </c>
-      <c r="H54" s="10">
-        <f t="shared" si="0"/>
+      <c r="I54" s="10">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="I54" s="13">
+      <c r="J54" s="13">
         <v>44823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>220</v>
       </c>
@@ -8004,24 +8277,28 @@
       <c r="D55" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="7">
+        <f t="shared" si="3"/>
+        <v>0.45138888888888895</v>
+      </c>
+      <c r="F55" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="10">
+      <c r="G55" s="10">
         <v>388</v>
       </c>
-      <c r="G55" s="10">
+      <c r="H55" s="10">
         <v>485</v>
       </c>
-      <c r="H55" s="10">
-        <f t="shared" si="0"/>
+      <c r="I55" s="10">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="I55" s="13">
+      <c r="J55" s="13">
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>221</v>
       </c>
@@ -8034,24 +8311,28 @@
       <c r="D56" s="9">
         <v>0.50138888888888888</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="7">
+        <f t="shared" si="3"/>
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="F56" s="9">
         <v>0.53055555555555556</v>
       </c>
-      <c r="F56" s="10">
+      <c r="G56" s="10">
         <v>637</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="10">
         <v>778</v>
       </c>
-      <c r="H56" s="10">
-        <f t="shared" si="0"/>
+      <c r="I56" s="10">
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="I56" s="13">
+      <c r="J56" s="13">
         <v>44833</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>135</v>
       </c>
@@ -8064,24 +8345,28 @@
       <c r="D57" s="9">
         <v>0.56874999999999998</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
+        <f t="shared" si="3"/>
+        <v>0.58854166666666663</v>
+      </c>
+      <c r="F57" s="9">
         <v>0.61527777777777781</v>
       </c>
-      <c r="F57" s="10">
+      <c r="G57" s="10">
         <v>203</v>
       </c>
-      <c r="G57" s="10">
+      <c r="H57" s="10">
         <v>310</v>
       </c>
-      <c r="H57" s="10">
-        <f t="shared" si="0"/>
+      <c r="I57" s="10">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="I57" s="13">
+      <c r="J57" s="13">
         <v>44848</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>136</v>
       </c>
@@ -8094,24 +8379,28 @@
       <c r="D58" s="9">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
+        <f t="shared" si="3"/>
+        <v>0.71979166666666672</v>
+      </c>
+      <c r="F58" s="9">
         <v>0.74791666666666667</v>
       </c>
-      <c r="F58" s="10">
+      <c r="G58" s="10">
         <v>163</v>
       </c>
-      <c r="G58" s="10">
+      <c r="H58" s="10">
         <v>384</v>
       </c>
-      <c r="H58" s="10">
-        <f t="shared" si="0"/>
+      <c r="I58" s="10">
+        <f t="shared" si="1"/>
         <v>221</v>
       </c>
-      <c r="I58" s="13">
+      <c r="J58" s="13">
         <v>44854</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>222</v>
       </c>
@@ -8124,24 +8413,28 @@
       <c r="D59" s="9">
         <v>0.36319444444444443</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
+        <f t="shared" si="3"/>
+        <v>0.38715277777777779</v>
+      </c>
+      <c r="F59" s="9">
         <v>0.41805555555555557</v>
       </c>
-      <c r="F59" s="10">
+      <c r="G59" s="10">
         <v>265</v>
       </c>
-      <c r="G59" s="10">
+      <c r="H59" s="10">
         <v>532</v>
       </c>
-      <c r="H59" s="10">
-        <f t="shared" si="0"/>
+      <c r="I59" s="10">
+        <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="I59" s="13">
+      <c r="J59" s="13">
         <v>44855</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>223</v>
       </c>
@@ -8154,24 +8447,28 @@
       <c r="D60" s="9">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
+        <f t="shared" si="3"/>
+        <v>0.59756944444444449</v>
+      </c>
+      <c r="F60" s="9">
         <v>0.62916666666666665</v>
       </c>
-      <c r="F60" s="10">
+      <c r="G60" s="10">
         <v>51</v>
       </c>
-      <c r="G60" s="10">
+      <c r="H60" s="10">
         <v>113</v>
       </c>
-      <c r="H60" s="10">
-        <f t="shared" si="0"/>
+      <c r="I60" s="10">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I60" s="13">
+      <c r="J60" s="13">
         <v>44858</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>137</v>
       </c>
@@ -8184,448 +8481,454 @@
       <c r="D61" s="9">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
+        <f t="shared" si="3"/>
+        <v>0.66510416666666672</v>
+      </c>
+      <c r="F61" s="9">
         <v>0.68784722222222217</v>
       </c>
-      <c r="F61" s="10">
+      <c r="G61" s="10">
         <v>70</v>
       </c>
-      <c r="G61" s="10">
+      <c r="H61" s="10">
         <v>113</v>
       </c>
-      <c r="H61" s="10">
-        <f t="shared" si="0"/>
+      <c r="I61" s="10">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="I61" s="13">
+      <c r="J61" s="13">
         <v>44860</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>224</v>
       </c>
       <c r="B62" s="9">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F62" s="10">
+      <c r="E62" s="7"/>
+      <c r="G62" s="10">
         <v>109</v>
       </c>
-      <c r="G62" s="10">
+      <c r="H62" s="10">
         <v>261</v>
       </c>
-      <c r="H62" s="10">
-        <f t="shared" si="0"/>
+      <c r="I62" s="10">
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="I62" s="13">
+      <c r="J62" s="13">
         <v>44861</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="10"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E63" s="7"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="10"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="10"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="10"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="10"/>
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="10"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="10"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="10"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="10"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F77" s="10"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F78" s="10"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F79" s="10"/>
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F80" s="10"/>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F81" s="10"/>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F82" s="10"/>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="10"/>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="10"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="10"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="10"/>
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="10"/>
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="10"/>
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="10"/>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="10"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="10"/>
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="10"/>
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="10"/>
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="10"/>
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="10"/>
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="10"/>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="10"/>
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="10"/>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="10"/>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="10"/>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="10"/>
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F103" s="10"/>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F104" s="10"/>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F105" s="10"/>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F106" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F107" s="10"/>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F108" s="10"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F109" s="10"/>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F110" s="10"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F111" s="10"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F112" s="10"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F113" s="10"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F114" s="10"/>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F115" s="10"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F116" s="10"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F117" s="10"/>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F118" s="10"/>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F119" s="10"/>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F120" s="10"/>
+      <c r="I119" s="10"/>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F121" s="10"/>
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F122" s="10"/>
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F123" s="10"/>
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F124" s="10"/>
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F125" s="10"/>
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F126" s="10"/>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F127" s="10"/>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F128" s="10"/>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F129" s="10"/>
+      <c r="I128" s="10"/>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F130" s="10"/>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F131" s="10"/>
+      <c r="I130" s="10"/>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F132" s="10"/>
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F133" s="10"/>
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F134" s="10"/>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F135" s="10"/>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F136" s="10"/>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F137" s="10"/>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F138" s="10"/>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F139" s="10"/>
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F140" s="10"/>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F141" s="10"/>
+      <c r="I140" s="10"/>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F142" s="10"/>
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F143" s="10"/>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8641,13 +8944,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8663,13 +8966,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8685,13 +8988,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8707,13 +9010,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8729,13 +9032,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8751,13 +9054,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8773,13 +9076,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8795,13 +9098,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8817,13 +9120,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8839,13 +9142,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8861,13 +9164,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8883,13 +9186,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8905,13 +9208,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8927,13 +9230,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8949,13 +9252,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8971,13 +9274,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -8993,13 +9296,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9015,13 +9318,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9037,13 +9340,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9059,13 +9362,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9081,13 +9384,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9103,13 +9406,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9125,13 +9428,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9147,13 +9450,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9169,13 +9472,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9191,13 +9494,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9213,13 +9516,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9235,13 +9538,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9257,13 +9560,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9279,13 +9582,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9301,13 +9604,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9323,13 +9626,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9345,13 +9648,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9367,13 +9670,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9389,13 +9692,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9411,13 +9714,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9433,13 +9736,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9455,13 +9758,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9477,13 +9780,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9499,13 +9802,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9521,13 +9824,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9543,13 +9846,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9565,13 +9868,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9587,13 +9890,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9609,13 +9912,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9631,13 +9934,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9653,13 +9956,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9675,13 +9978,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9697,13 +10000,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9719,13 +10022,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9741,13 +10044,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9763,13 +10066,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9785,13 +10088,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9807,13 +10110,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9829,13 +10132,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9851,13 +10154,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9873,13 +10176,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
@@ -9895,13 +10198,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9917,13 +10220,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9939,13 +10242,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9961,13 +10264,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -9983,13 +10286,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10005,13 +10308,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10027,13 +10330,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10049,13 +10352,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10071,13 +10374,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10093,13 +10396,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10115,13 +10418,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10137,13 +10440,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10159,13 +10462,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10181,13 +10484,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10203,13 +10506,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10225,13 +10528,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10247,13 +10550,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10269,13 +10572,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10291,13 +10594,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10313,13 +10616,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10335,13 +10638,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10357,13 +10660,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10379,13 +10682,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>7620</xdr:rowOff>
@@ -10401,13 +10704,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10423,13 +10726,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -10445,13 +10748,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
+                    <xdr:col>10</xdr:col>
                     <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>11</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\01_Laborstudie ProVisioNET\Herzratenmessung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{209068F2-88FB-4710-89DA-C1FBB8F4BC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7FB0C3C4-B48E-4AEB-85AA-60F5267BB6FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3EB42-CCD3-4395-B298-D1FDE6C55CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -182,6 +182,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -575,6 +576,26 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2935,7 +2956,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3002,7 +3023,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3069,7 +3090,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3136,7 +3157,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3203,7 +3224,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3270,7 +3291,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3337,7 +3358,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3404,7 +3425,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3471,7 +3492,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3538,7 +3559,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3605,7 +3626,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3672,7 +3693,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3739,7 +3760,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3806,7 +3827,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3873,7 +3894,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3940,7 +3961,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4007,7 +4028,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4074,7 +4095,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4141,7 +4162,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4208,7 +4229,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4275,7 +4296,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>896</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4342,7 +4363,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>897</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4945,7 +4966,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5012,7 +5033,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5079,7 +5100,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5146,7 +5167,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5414,7 +5435,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5548,7 +5569,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5749,7 +5770,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5883,7 +5904,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6341,14 +6362,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
@@ -6357,7 +6383,7 @@
                   <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A3FF5A-D1A1-403B-A757-ABC3EB4862F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6397,20 +6423,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
@@ -6419,7 +6450,7 @@
                   <a14:compatExt spid="_x0000_s1124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75710B40-6455-42B1-919B-CF8E8C4D22C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6459,20 +6490,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
@@ -6481,7 +6517,7 @@
                   <a14:compatExt spid="_x0000_s1125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9130182-BBBB-4C3E-A9E2-43793C47C498}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6521,20 +6557,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
@@ -6543,7 +6584,7 @@
                   <a14:compatExt spid="_x0000_s1126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFFE79B-87A5-44A7-8A11-08A73F331FAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6583,20 +6624,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
@@ -6605,7 +6651,7 @@
                   <a14:compatExt spid="_x0000_s1127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F12326-895C-4EE4-99F8-2D33E69A296C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6645,20 +6691,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
@@ -6667,7 +6718,7 @@
                   <a14:compatExt spid="_x0000_s1128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8663C80F-780F-47BD-B285-734B65E0328F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6707,20 +6758,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>70</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
@@ -6729,7 +6785,7 @@
                   <a14:compatExt spid="_x0000_s1129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65FCDD1B-817C-4E92-83F9-2CBECE899F09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6769,20 +6825,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
@@ -6791,7 +6852,7 @@
                   <a14:compatExt spid="_x0000_s1130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E0465E-D113-4BEE-BF45-66C462FBE402}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6831,7 +6892,342 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D93555-FC0B-4542-BE33-2B3C7AF9681B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1132" name="Check Box 108" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1132"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681A5756-25C7-4031-9676-C1583165692D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1133"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33160D50-61A5-405F-8842-D088CF2767FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1134"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19733348-B084-4342-9360-D4C7DB3CF12B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1135"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5516EFDD-911B-478C-970E-424D3B6C4F27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -7138,8 +7534,8 @@
   <dimension ref="A1:L144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7921,7 +8317,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I72" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I77" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -9277,7 +9673,7 @@
         <v>0.66875000000000007</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" ref="E63:E72" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
+        <f t="shared" ref="E63:E79" si="3">(F63-D63)/2+D63-TIME(0,5,0)</f>
         <v>0.69513888888888897</v>
       </c>
       <c r="F63" s="9">
@@ -9604,36 +10000,183 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
+      <c r="A73" s="6">
+        <v>142</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" si="3"/>
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="G73" s="7">
+        <v>27</v>
+      </c>
+      <c r="H73" s="7">
+        <v>171</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="J73" s="8">
+        <v>44971</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="A74" s="6">
+        <v>231</v>
+      </c>
+      <c r="B74" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C74" s="11">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" si="3"/>
+        <v>0.50486111111111109</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="G74" s="7">
+        <v>212</v>
+      </c>
+      <c r="H74" s="7">
+        <v>452</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="J74" s="8">
+        <v>44980</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
+      <c r="A75" s="6">
+        <v>232</v>
+      </c>
+      <c r="B75" s="11">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="F75" s="11">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G75" s="7">
+        <v>94</v>
+      </c>
+      <c r="H75" s="7">
+        <v>132</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J75" s="8">
+        <v>44991</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
+      <c r="A76" s="6">
+        <v>233</v>
+      </c>
+      <c r="B76" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" si="3"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="G76" s="7">
+        <v>79</v>
+      </c>
+      <c r="H76" s="7">
+        <v>135</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J76" s="8">
+        <v>44993</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
+      <c r="A77" s="6">
+        <v>234</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="E77" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66736111111111118</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="G77" s="7">
+        <v>331</v>
+      </c>
+      <c r="H77" s="7">
+        <v>415</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="J77" s="8">
+        <v>44993</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E78" s="9"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E79" s="9"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -12039,6 +12582,116 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1131" r:id="rId98" name="Check Box 107">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>76</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1132" r:id="rId99" name="Check Box 108">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>76</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1133" r:id="rId100" name="Check Box 109">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>72</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1134" r:id="rId101" name="Check Box 110">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1135" r:id="rId102" name="Check Box 111">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C3EB42-CCD3-4395-B298-D1FDE6C55CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D3C3EB42-CCD3-4395-B298-D1FDE6C55CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{53862329-D289-4702-8213-D78D1AF4A168}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ID participant</t>
   </si>
@@ -205,6 +205,22 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2956,7 +2972,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3023,7 +3039,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3090,7 +3106,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3157,7 +3173,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3224,7 +3240,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3291,7 +3307,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3358,7 +3374,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3425,7 +3441,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3492,7 +3508,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3559,7 +3575,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3626,7 +3642,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3693,7 +3709,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3760,7 +3776,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3827,7 +3843,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3894,7 +3910,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3961,7 +3977,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4028,7 +4044,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4095,7 +4111,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4162,7 +4178,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4229,7 +4245,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4296,7 +4312,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>896</xdr:rowOff>
+          <xdr:rowOff>2615</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4363,7 +4379,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>897</xdr:rowOff>
+          <xdr:rowOff>2614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4966,7 +4982,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5033,7 +5049,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5100,7 +5116,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5167,7 +5183,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5435,7 +5451,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5569,7 +5585,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5770,7 +5786,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5904,7 +5920,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>2540</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6919,7 +6935,7 @@
                   <a14:compatExt spid="_x0000_s1131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D93555-FC0B-4542-BE33-2B3C7AF9681B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6986,7 +7002,7 @@
                   <a14:compatExt spid="_x0000_s1132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681A5756-25C7-4031-9676-C1583165692D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7053,7 +7069,7 @@
                   <a14:compatExt spid="_x0000_s1133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33160D50-61A5-405F-8842-D088CF2767FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7120,7 +7136,7 @@
                   <a14:compatExt spid="_x0000_s1134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19733348-B084-4342-9360-D4C7DB3CF12B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7187,7 +7203,7 @@
                   <a14:compatExt spid="_x0000_s1135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5516EFDD-911B-478C-970E-424D3B6C4F27}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7228,6 +7244,254 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1136"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ECD1F3-42D1-46FE-9DBA-906AC95AAA7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1137"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C8A975-5EA8-4252-A613-46B7FB93B668}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1138"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B247A668-DE60-41E5-924F-EAE441767C95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1139"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0085D902-C814-4D82-91E0-FF66BA9ED186}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -7533,9 +7797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8317,7 +8581,7 @@
         <v>754</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" ref="I23:I77" si="1">H23-G23</f>
+        <f t="shared" ref="I23:I79" si="1">H23-G23</f>
         <v>567</v>
       </c>
       <c r="J23" s="8">
@@ -9727,7 +9991,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>227</v>
       </c>
@@ -9761,7 +10025,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>138</v>
       </c>
@@ -9795,7 +10059,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>139</v>
       </c>
@@ -9829,7 +10093,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>140</v>
       </c>
@@ -9863,7 +10127,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>228</v>
       </c>
@@ -9897,7 +10161,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>141</v>
       </c>
@@ -9931,7 +10195,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>229</v>
       </c>
@@ -9965,7 +10229,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>230</v>
       </c>
@@ -9999,7 +10263,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>142</v>
       </c>
@@ -10033,7 +10297,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>231</v>
       </c>
@@ -10067,7 +10331,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>232</v>
       </c>
@@ -10101,7 +10365,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>233</v>
       </c>
@@ -10135,7 +10399,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>234</v>
       </c>
@@ -10169,22 +10433,110 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E78" s="9"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E79" s="9"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>235</v>
+      </c>
+      <c r="B78" s="11">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C78" s="11">
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" si="3"/>
+        <v>0.66701388888888891</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="G78" s="7">
+        <v>92</v>
+      </c>
+      <c r="H78" s="7">
+        <v>444</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="J78" s="8">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>236</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C79" s="11">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="D79" s="11">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" si="3"/>
+        <v>0.4628472222222223</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="G79" s="7">
+        <v>266</v>
+      </c>
+      <c r="H79" s="7">
+        <v>365</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="J79" s="8">
+        <v>45028</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>237</v>
+      </c>
+      <c r="B80" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C80" s="11">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" ref="E80" si="4">(F80-D80)/2+D80-TIME(0,5,0)</f>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="F80" s="11">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="G80" s="7">
+        <v>143</v>
+      </c>
+      <c r="H80" s="7">
+        <v>220</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" ref="I80" si="5">H80-G80</f>
+        <v>77</v>
+      </c>
+      <c r="J80" s="8">
+        <v>45029</v>
+      </c>
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G81" s="7"/>
@@ -12692,6 +13044,94 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1136" r:id="rId103" name="Check Box 112">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1137" r:id="rId104" name="Check Box 113">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1138" r:id="rId105" name="Check Box 114">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1139" r:id="rId106" name="Check Box 115">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>76</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D3C3EB42-CCD3-4395-B298-D1FDE6C55CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{53862329-D289-4702-8213-D78D1AF4A168}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D3C3EB42-CCD3-4395-B298-D1FDE6C55CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BACF5E5E-0060-4FFC-AE0B-4BA97E0CE000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -2972,7 +2972,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>3189</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3039,7 +3039,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3106,7 +3106,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3173,7 +3173,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3189</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3240,7 +3240,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3307,7 +3307,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3374,7 +3374,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3441,7 +3441,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3189</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3508,7 +3508,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3575,7 +3575,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3642,7 +3642,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3709,7 +3709,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3776,7 +3776,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3843,7 +3843,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3910,7 +3910,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>3189</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3977,7 +3977,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4044,7 +4044,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4111,7 +4111,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4178,7 +4178,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3189</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4245,7 +4245,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4312,7 +4312,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>2615</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4379,7 +4379,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>2614</xdr:rowOff>
+          <xdr:rowOff>3190</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4982,7 +4982,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5049,7 +5049,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5116,7 +5116,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5183,7 +5183,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5451,7 +5451,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5585,7 +5585,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5786,7 +5786,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5920,7 +5920,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>2540</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7249,14 +7249,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
@@ -7265,7 +7270,7 @@
                   <a14:compatExt spid="_x0000_s1136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6ECD1F3-42D1-46FE-9DBA-906AC95AAA7C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7305,20 +7310,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>78</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
@@ -7327,7 +7337,7 @@
                   <a14:compatExt spid="_x0000_s1137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C8A975-5EA8-4252-A613-46B7FB93B668}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7367,20 +7377,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
@@ -7389,7 +7404,7 @@
                   <a14:compatExt spid="_x0000_s1138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B247A668-DE60-41E5-924F-EAE441767C95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7429,20 +7444,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219947" cy="194236"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
@@ -7451,7 +7471,7 @@
                   <a14:compatExt spid="_x0000_s1139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0085D902-C814-4D82-91E0-FF66BA9ED186}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7491,7 +7511,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -7797,9 +7817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D3C3EB42-CCD3-4395-B298-D1FDE6C55CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BACF5E5E-0060-4FFC-AE0B-4BA97E0CE000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11031D-B2D0-4438-9657-CE414F163ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -2971,8 +2971,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>3189</xdr:rowOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3038,8 +3038,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3105,8 +3105,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3172,8 +3172,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>3189</xdr:rowOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3239,8 +3239,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3306,8 +3306,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3373,8 +3373,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3440,8 +3440,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>3189</xdr:rowOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3507,8 +3507,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3574,8 +3574,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3641,8 +3641,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>42</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3708,8 +3708,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3775,8 +3775,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3842,8 +3842,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3909,8 +3909,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>47</xdr:row>
-          <xdr:rowOff>3189</xdr:rowOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3976,8 +3976,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4043,8 +4043,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4110,8 +4110,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>50</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4177,8 +4177,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>3189</xdr:rowOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4244,8 +4244,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4311,8 +4311,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4378,8 +4378,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>3190</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7817,9 +7817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8275,7 +8275,7 @@
         <v>110</v>
       </c>
       <c r="B14" s="9">
-        <v>0.55277777777777781</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C14" s="9">
         <v>0.57291666666666663</v>
@@ -10220,7 +10220,7 @@
         <v>229</v>
       </c>
       <c r="B71" s="11">
-        <v>0.41319444444444442</v>
+        <v>0.41944444444444445</v>
       </c>
       <c r="C71" s="10">
         <v>0.4381944444444445</v>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF11031D-B2D0-4438-9657-CE414F163ADA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E355D18-5459-490E-86A4-E889AD54B9BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -222,6 +222,26 @@
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7515,6 +7535,316 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1140"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A342E01E-0D39-4F0E-96AE-88F35687125F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1141"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534E9D2C-5130-4042-AC6C-DD7E7D147CED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F366B910-1873-4059-A91B-6961522B54AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA9B1EB-9502-4C7E-B4E1-B65D2AB2647E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1144"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF16E75-D184-4936-9B1F-1358D7F98DFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -7817,9 +8147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10538,7 +10868,7 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="E80" s="9">
-        <f t="shared" ref="E80" si="4">(F80-D80)/2+D80-TIME(0,5,0)</f>
+        <f t="shared" ref="E80:E81" si="4">(F80-D80)/2+D80-TIME(0,5,0)</f>
         <v>0.37777777777777777</v>
       </c>
       <c r="F80" s="11">
@@ -10551,89 +10881,206 @@
         <v>220</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" ref="I80" si="5">H80-G80</f>
+        <f t="shared" ref="I80:I85" si="5">H80-G80</f>
         <v>77</v>
       </c>
       <c r="J80" s="8">
         <v>45029</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>238</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C81" s="12">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" si="4"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="G81" s="7">
+        <v>99</v>
+      </c>
+      <c r="H81" s="7">
+        <v>424</v>
+      </c>
+      <c r="I81" s="7">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="J81" s="8">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>239</v>
+      </c>
+      <c r="B82" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="G82" s="7">
+        <v>24</v>
+      </c>
+      <c r="H82" s="7">
+        <v>51</v>
+      </c>
+      <c r="I82" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="J82" s="8">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>240</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="G83" s="7">
+        <v>31</v>
+      </c>
+      <c r="H83" s="7">
+        <v>357</v>
+      </c>
+      <c r="I83" s="7">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="J83" s="8">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>241</v>
+      </c>
+      <c r="B84" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="G84" s="7">
+        <v>245</v>
+      </c>
+      <c r="H84" s="7">
+        <v>302</v>
+      </c>
+      <c r="I84" s="7">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="J84" s="8">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>242</v>
+      </c>
+      <c r="B85" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C85" s="11">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="G85" s="7">
+        <v>86</v>
+      </c>
+      <c r="H85" s="7">
+        <v>129</v>
+      </c>
+      <c r="I85" s="7">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="J85" s="8">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -13152,6 +13599,116 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1140" r:id="rId107" name="Check Box 116">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1141" r:id="rId108" name="Check Box 117">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1142" r:id="rId109" name="Check Box 118">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1143" r:id="rId110" name="Check Box 119">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>84</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1144" r:id="rId111" name="Check Box 120">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>84</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>85</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E355D18-5459-490E-86A4-E889AD54B9BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7ED7F-D19A-4DE4-97D3-BF94BF4F1EE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="3516" windowWidth="17280" windowHeight="8964" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -225,23 +225,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7537,14 +7537,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>80</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
@@ -7553,7 +7558,7 @@
                   <a14:compatExt spid="_x0000_s1140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A342E01E-0D39-4F0E-96AE-88F35687125F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7593,20 +7598,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
@@ -7615,7 +7625,7 @@
                   <a14:compatExt spid="_x0000_s1141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534E9D2C-5130-4042-AC6C-DD7E7D147CED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7655,20 +7665,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
@@ -7677,7 +7692,7 @@
                   <a14:compatExt spid="_x0000_s1142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F366B910-1873-4059-A91B-6961522B54AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7717,20 +7732,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
@@ -7739,7 +7759,7 @@
                   <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA9B1EB-9502-4C7E-B4E1-B65D2AB2647E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7779,20 +7799,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1223010" cy="200025"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
@@ -7801,7 +7826,7 @@
                   <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF16E75-D184-4936-9B1F-1358D7F98DFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7841,7 +7866,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -8147,9 +8172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L84" sqref="L84"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10868,7 +10893,7 @@
         <v>0.35694444444444445</v>
       </c>
       <c r="E80" s="9">
-        <f t="shared" ref="E80:E81" si="4">(F80-D80)/2+D80-TIME(0,5,0)</f>
+        <f t="shared" ref="E80:E85" si="4">(F80-D80)/2+D80-TIME(0,5,0)</f>
         <v>0.37777777777777777</v>
       </c>
       <c r="F80" s="11">
@@ -10935,6 +10960,13 @@
       <c r="D82" s="11">
         <v>0.65208333333333335</v>
       </c>
+      <c r="E82" s="9">
+        <f t="shared" si="4"/>
+        <v>0.67604166666666665</v>
+      </c>
+      <c r="F82" s="11">
+        <v>0.70694444444444438</v>
+      </c>
       <c r="G82" s="7">
         <v>24</v>
       </c>
@@ -10962,6 +10994,13 @@
       <c r="D83" s="11">
         <v>0.48541666666666666</v>
       </c>
+      <c r="E83" s="9">
+        <f t="shared" si="4"/>
+        <v>0.51423611111111112</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0.54999999999999993</v>
+      </c>
       <c r="G83" s="7">
         <v>31</v>
       </c>
@@ -10989,6 +11028,13 @@
       <c r="D84" s="11">
         <v>0.4381944444444445</v>
       </c>
+      <c r="E84" s="9">
+        <f t="shared" si="4"/>
+        <v>0.47048611111111116</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0.50972222222222219</v>
+      </c>
       <c r="G84" s="7">
         <v>245</v>
       </c>
@@ -11015,6 +11061,13 @@
       </c>
       <c r="D85" s="11">
         <v>0.4375</v>
+      </c>
+      <c r="E85" s="9">
+        <f t="shared" si="4"/>
+        <v>0.46770833333333334</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0.50486111111111109</v>
       </c>
       <c r="G85" s="7">
         <v>86</v>
